--- a/DOM_Banner/output/dept0713/Clara N Curiel_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Clara N Curiel_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,39 +452,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Center for Melanoma Research and Treatment, California Pacific Medical Center Research Institute, San Francisco.; Departments of Dermatology and Family Medicine, Knight Cancer Institute, Oregon Health &amp; Science University, Portland.; Ronald O. Perelman Department of Dermatology, NYU Langone Health, New York, New York.; Department of Dermatology, Emory University School of Medicine, Winship Cancer Institute, Atlanta Veterans Administration Health Center, Atlanta, Georgia.; Departments of Dermatology and Family Medicine, Knight Cancer Institute, Oregon Health &amp; Science University, Portland.; Ronald O. Perelman Department of Dermatology, NYU Langone Health, New York, New York.; UA Cancer Center Skin Cancer Institute, Division of Dermatology, College of Medicine, University of Arizona, Tucson.; Departments of Dermatology and Medicine, University of Pittsburgh, UPMC Hillman Cancer Center, Pittsburgh, Pennsylvania.; Department of Dermatology, University of Connecticut School of Medicine, Farmington.; Department of Dermatology, University of Florida College of Medicine, Gainesville.; Huntsman Cancer Institute, University of Utah, Salt Lake City.; Departments of Dermatology and Family Medicine, Knight Cancer Institute, Oregon Health &amp; Science University, Portland.; Dermatology Service, Department of Medicine, Memorial Sloan Kettering Cancer Center, New York, New York.; Department of Dermatology, The University of Texas MD Anderson Cancer Center, Houston.; Ronald O. Perelman Department of Dermatology, NYU Langone Health, New York, New York.; Department of Dermatology, Tufts University School of Medicine, Boston, Massachusetts.; Department of Dermatology/Pigmented Lesion and Melanoma Program, Stanford University Medical Center and Cancer Institute, Palo Alto, California.; Dermatology Service, VA Palo Alto Health Care System, Palo Alto, California.; Department of Dermatology, Massachusetts General Hospital, Boston.; Harvard Medical School, Boston, Massachusetts.; Departments of Dermatology and Family Medicine, Knight Cancer Institute, Oregon Health &amp; Science University, Portland.; Dermatology Department, University of California, San Francisco.; Dermatology Service, San Francisco VA Health Care System, San Francisco, California.; Departments of Dermatology and Family Medicine, Knight Cancer Institute, Oregon Health &amp; Science University, Portland.; Dermatology Service, Department of Medicine, Memorial Sloan Kettering Cancer Center, New York, New York.; Department of Dermatology, Yale University School of Medicine, New Haven, Connecticut.; Intermountain Medical Center, Murray, Utah.; Department of Dermatology, Michigan Medicine, Ann Arbor.; Department of Dermatology, University of Pennsylvania, Philadelphia.; Department of Dermatology, Massachusetts General Hospital, Boston.; Harvard Medical School, Boston, Massachusetts.; Department of Dermatology, Massachusetts General Hospital, Boston.; Harvard Medical School, Boston, Massachusetts.; Department of Dermatology, University of Maryland, Baltimore, Maryland.; Department of Cutaneous Oncology, H. Lee Moffitt Cancer Center &amp; Research Institute, Tampa, Florida.; Department of Dermatology, Duke University, Durham, North Carolina.; Department of Dermatology, Emory University School of Medicine, Winship Cancer Institute, Atlanta Veterans Administration Health Center, Atlanta, Georgia.; Cincinnati Cancer Advisors, Cincinnati, Ohio.; Ronald O. Perelman Department of Dermatology, NYU Langone Health, New York, New York.; Department of Dermatology, University of Pennsylvania, Philadelphia.; Boston Medical Center, Boston, Massachusetts.; Department of Dermatology, University of Texas Southwestern Medical Center, Dallas.; Department of Hematology/Oncology, Fox Chase Cancer Center, Philadelphia, Pennsylvania.; Department of Dermatology, Massachusetts General Hospital, Boston.; Harvard Medical School, Boston, Massachusetts.; Department of Cutaneous Oncology, H. Lee Moffitt Cancer Center &amp; Research Institute, Tampa, Florida.; Ohio State University Wexner Medical Center, Columbus.; University of Texas Health, San Antonio; Inova Schar Cancer Institute, Inova Fairfax Hospital, University of Virginia School of Medicine, Charlottesville.; Departments of Dermatology and Medicine, University of Pittsburgh, UPMC Hillman Cancer Center, Pittsburgh, Pennsylvania.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4324311227</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Early Detection and Prognostic Assessment of Cutaneous Melanoma</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>JAMA Dermatology</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>American Medical Association</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1001/jamadermatol.2023.0127</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -487,35 +492,40 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N2" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36920356</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1001/jamadermatol.2023.0127</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>R. Ken Coit College of Pharmacy, University of Arizona, Tucson, AZ; University of Arizona Cancer Center, Tucson, AZ; University of Arizona Cancer Center, Tucson, AZ; University of Arizona BIO5 Institute; University of Arizona BIO5 Institute; University of Arizona Cancer Center, Tucson, AZ; Department of Dermatology and Cutaneous Biology, Department of Otolaryngology Head and Neck Surgery, Sydney Kimmel Cancer Center, Thomas Jefferson University, Philadelphia, PA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4318052075</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Characterizing Dermal Transcriptional Change in the Progression from Sun-Protected Skin to Actinic Keratosis</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-07-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Journal of Investigative Dermatology</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jid.2022.12.021</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36708948</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jid.2022.12.021</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -606,80 +621,85 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Victor H. Ruíz, David Encinas-Basurto, Bo Sun, Basanth Babu Eedara, Eunmiri Roh, Neftali Ortega Alarcon, Clara Curiel‐Lewandrowski, Ann M. Bode, Heidi M. Mansour</t>
+          <t>Víctor H. Ruiz, David Encinas-Basurto, Bo Sun, Basanth Babu Eedara, Eunmiri Roh, Neftali Ortega Alarcon, Clara Curiel‐Lewandrowski, Ann M. Bode, Heidi M. Mansour</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Skaggs Pharmaceutical Sciences Center, College of Pharmacy, The University of Arizona, Tucson, AZ 85721, USA; Department of Physics, Mathematics and Engineering, Campus Navojoa, Universidad de Sonora, Sonora 85880, Mexico; Skaggs Pharmaceutical Sciences Center, College of Pharmacy, The University of Arizona, Tucson, AZ 85721, USA; Skaggs Pharmaceutical Sciences Center, College of Pharmacy, The University of Arizona, Tucson, AZ 85721, USA; Center for Translational Science, Florida International University, Port St. Lucie, FL 34987, USA; Skaggs Pharmaceutical Sciences Center, College of Pharmacy, The University of Arizona, Tucson, AZ 85721, USA; Department of Cosmetic Science, Kwangju Women’s University, Gwangju 62396, Republic of Korea; The Hormel Institute, University of Minnesota, Austin, MN 55912, USA; Skaggs Pharmaceutical Sciences Center, College of Pharmacy, The University of Arizona, Tucson, AZ 85721, USA; The University of Arizona Cancer Center, Skin Cancer Institute, Tucson, AZ 85721, USA; The Hormel Institute, University of Minnesota, Austin, MN 55912, USA; Center for Translational Science, Florida International University, Port St. Lucie, FL 34987, USA; Skaggs Pharmaceutical Sciences Center, College of Pharmacy, The University of Arizona, Tucson, AZ 85721, USA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4376954951</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Innovative Rocuronium Bromide Topical Formulation for Targeted Skin Drug Delivery: Design, Comprehensive Characterization, In Vitro 2D/3D Human Cell Culture and Permeation</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-05-15</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>International Journal of Molecular Sciences</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/ijms24108776</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37240122</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/ijms24108776</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,24 +713,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4362484802</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Data from Functional Protein Pathway Activation Mapping of the Progression of Normal Skin to Squamous Cell Carcinoma</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -718,50 +738,55 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1158/1940-6207.c.6544719.v1</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1940-6207.c.6544719.v1</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,24 +800,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4362484865</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Supplementary Table 1 from Functional Protein Pathway Activation Mapping of the Progression of Normal Skin to Squamous Cell Carcinoma</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -800,50 +825,55 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1158/1940-6207.22525377.v1</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1940-6207.22525377.v1</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,24 +887,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4362484879</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Supplemental Figure Legend from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -882,50 +912,55 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1158/1535-7163.22507677.v1</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>nl</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1535-7163.22507677.v1</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,24 +974,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4362484901</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Supplemental Figure 5 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -964,50 +999,55 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1158/1535-7163.22507683.v1</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1535-7163.22507683.v1</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,24 +1061,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362484936</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Supplemental Figure 6 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
+          <t>https://openalex.org/W4362484971</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>Supplemental Figure 1 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1046,50 +1086,55 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22507680.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1535-7163.22507695.v1</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1535-7163.22507680.v1</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.22507695.v1</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1098,29 +1143,29 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ge Gao, Tianshun Zhang, Qiushi Wang, Kanamata Reddy, Hanyong Chen, Yinglin Ke, Keke Wang, Eunmiri Roh, Tatyana A. Zykova, Weiya Ma, Joohyun Ryu, Clara Curiel‐Lewandrowski, David S. Alberts, Sally E. Dickinson, Ann M. Bode, Ying Xing, Zigang Dong</t>
+          <t>Janine G. Einspahr, Valerie Calvert, David S. Alberts, Clara Curiel‐Lewandrowski, James Warneke, Robert S. Krouse, Steven P. Stratton, Lance A. Liotta, Caterina Longo, Giovanni Pellicani, Anil Prasad, Paul Sagerman, Yira Bermudez, Jianghong Deng, G. Timothy Bowden, Emanuel F. Petricoin</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362484971</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Supplemental Figure 1 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
+          <t>https://openalex.org/W4362484973</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>Supplementary Table 1 from Functional Protein Pathway Activation Mapping of the Progression of Normal Skin to Squamous Cell Carcinoma</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1128,50 +1173,55 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22507695.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1940-6207.22525377</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1535-7163.22507695.v1</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1940-6207.22525377</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1180,29 +1230,29 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Janine G. Einspahr, Valerie Calvert, David S. Alberts, Clara Curiel‐Lewandrowski, James Warneke, Robert S. Krouse, Steven P. Stratton, Lance A. Liotta, Caterina Longo, Giovanni Pellicani, Anil Prasad, Paul Sagerman, Yira Bermudez, Jianghong Deng, G. Timothy Bowden, Emanuel F. Petricoin</t>
+          <t>Ge Gao, Tianshun Zhang, Qiushi Wang, Kanamata Reddy, Hanyong Chen, Yinglin Ke, Keke Wang, Eunmiri Roh, Tatyana A. Zykova, Weiya Ma, Joohyun Ryu, Clara Curiel‐Lewandrowski, David S. Alberts, Sally E. Dickinson, Ann M. Bode, Ying Xing, Zigang Dong</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362484973</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Supplementary Table 1 from Functional Protein Pathway Activation Mapping of the Progression of Normal Skin to Squamous Cell Carcinoma</t>
+          <t>https://openalex.org/W4362485096</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>Supplemental Figure 4 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1210,50 +1260,55 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.22525377</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1535-7163.22507686.v1</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
       <c r="K11" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N11" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1940-6207.22525377</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.22507686.v1</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,24 +1322,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362485065</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Supplemental Figure 2 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
+          <t>https://openalex.org/W4362485101</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>Supplemental Figure 3 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1292,50 +1347,55 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22507692.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1535-7163.22507689.v1</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
       <c r="K12" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N12" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1535-7163.22507692.v1</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.22507689.v1</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1349,24 +1409,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362485096</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Supplemental Figure 4 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
+          <t>https://openalex.org/W4362494170</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>Data from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1374,50 +1434,55 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22507686.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/1535-7163.c.6538761</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
       <c r="K13" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1535-7163.22507686.v1</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.c.6538761</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1431,24 +1496,24 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362485101</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Supplemental Figure 3 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
+          <t>https://openalex.org/W4362494202</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>Supplemental Figure 5 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1456,50 +1521,55 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22507689.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1535-7163.22507683</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N14" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1535-7163.22507689.v1</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.22507683</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1513,24 +1583,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362493314</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Data from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
+          <t>https://openalex.org/W4362494263</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>Supplemental Figure Legend from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1538,50 +1608,55 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.c.6538761.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1535-7163.22507677</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L15" t="inlineStr">
         <is>
+          <t>nl</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N15" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1535-7163.c.6538761.v1</t>
-        </is>
-      </c>
       <c r="P15" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.22507677</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1595,24 +1670,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362494170</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Data from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
+          <t>https://openalex.org/W4362494320</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>Supplemental Figure 2 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1620,50 +1695,55 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.c.6538761</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1535-7163.22507692</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N16" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1535-7163.c.6538761</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.22507692</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1672,29 +1752,29 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ge Gao, Tianshun Zhang, Qiushi Wang, Kanamata Reddy, Hanyong Chen, Yinglin Ke, Keke Wang, Eunmiri Roh, Tatyana A. Zykova, Weiya Ma, Joohyun Ryu, Clara Curiel‐Lewandrowski, David S. Alberts, Sally E. Dickinson, Ann M. Bode, Ying Xing, Zigang Dong</t>
+          <t>Sally E. Dickinson, Jaroslav Janda, Jane Criswell, Karen Blohm-Mangone, Erik R. Olson, Zhonglin Liu, Christy Barber, Emanuel F. Petricoin, Valerie Calvert, Janine G. Einspahr, Jesse E. Dickinson, Steven P. Stratton, Clara Curiel‐Lewandrowski, Kathylynn Saboda, Chengcheng Hu, Ann M. Bode, Zigang Dong, David S. Alberts, G. Timothy Bowden</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362494202</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Supplemental Figure 5 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
+          <t>https://openalex.org/W4362531849</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>Dickinson Supp Figure 1 from Inhibition of Akt Enhances the Chemopreventive Effects of Topical Rapamycin in Mouse Skin</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1702,50 +1782,55 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22507683</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1940-6207.22534219</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N17" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1535-7163.22507683</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1940-6207.22534219</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1754,29 +1839,29 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ge Gao, Tianshun Zhang, Qiushi Wang, Kanamata Reddy, Hanyong Chen, Yinglin Ke, Keke Wang, Eunmiri Roh, Tatyana A. Zykova, Weiya Ma, Joohyun Ryu, Clara Curiel‐Lewandrowski, David S. Alberts, Sally E. Dickinson, Ann M. Bode, Ying Xing, Zigang Dong</t>
+          <t>Aleksandar Sekulić, Su Y. Kim, Galen Hostetter, Stephanie A. Savage, Janine G. Einspahr, Anil Prasad, Paul Sagerman, Clara Curiel‐Lewandrowski, Robert S. Krouse, G. Timothy Bowden, James Warneke, David S. Alberts, Mark R. Pittelkow, David J. DiCaudo, Brian J. Nickoloff, Jeffrey M. Trent, Michael Bittner</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362494214</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Supplemental Figure 4 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
+          <t>https://openalex.org/W4362537526</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>Supplementary Figure S1 from Loss of Inositol Polyphosphate 5-Phosphatase Is an Early Event in Development of Cutaneous Squamous Cell Carcinoma</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1784,50 +1869,55 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22507686</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/1940-6207.22524936.v1</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
       <c r="K18" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N18" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1535-7163.22507686</t>
-        </is>
-      </c>
       <c r="P18" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1940-6207.22524936.v1</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1836,29 +1926,29 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ge Gao, Tianshun Zhang, Qiushi Wang, Kanamata Reddy, Hanyong Chen, Yinglin Ke, Keke Wang, Eunmiri Roh, Tatyana A. Zykova, Weiya Ma, Joohyun Ryu, Clara Curiel‐Lewandrowski, David S. Alberts, Sally E. Dickinson, Ann M. Bode, Ying Xing, Zigang Dong</t>
+          <t>Yira Bermudez, Steven P. Stratton, Clara Curiel‐Lewandrowski, James Warneke, Chengcheng Hu, G. Tim Bowden, Sally E. Dickinson, Zigang Dong, Ann M. Bode, Kathylynn Saboda, Christine Brooks, Emanuel F. Petricoin, Craig A. Hurst, David S. Alberts, Janine G. Einspahr</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362494263</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Supplemental Figure Legend from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
+          <t>https://openalex.org/W4362538097</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>Supplementary Figure Legends from Activation of the PI3K/Akt/mTOR and MAPK Signaling Pathways in Response to Acute Solar-Simulated Light Exposure of Human Skin</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1866,50 +1956,55 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22507677</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1940-6207.22526687.v1</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>nl</t>
-        </is>
-      </c>
       <c r="L19" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N19" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1535-7163.22507677</t>
-        </is>
-      </c>
       <c r="P19" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1940-6207.22526687.v1</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1918,29 +2013,29 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Ge Gao, Tianshun Zhang, Qiushi Wang, Kanamata Reddy, Hanyong Chen, Yinglin Ke, Keke Wang, Eunmiri Roh, Tatyana A. Zykova, Weiya Ma, Joohyun Ryu, Clara Curiel‐Lewandrowski, David S. Alberts, Sally E. Dickinson, Ann M. Bode, Ying Xing, Zigang Dong</t>
+          <t>Yira Bermudez, Steven P. Stratton, Clara Curiel‐Lewandrowski, James Warneke, Chengcheng Hu, G. Tim Bowden, Sally E. Dickinson, Zigang Dong, Ann M. Bode, Kathylynn Saboda, Christine Brooks, Emanuel F. Petricoin, Craig A. Hurst, David S. Alberts, Janine G. Einspahr</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362494290</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Supplemental Figure 6 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
+          <t>https://openalex.org/W4362538328</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>Supplementary Figures 1-3 from Activation of the PI3K/Akt/mTOR and MAPK Signaling Pathways in Response to Acute Solar-Simulated Light Exposure of Human Skin</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1948,50 +2043,55 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22507680</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/1940-6207.22526684.v1</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N20" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1535-7163.22507680</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1940-6207.22526684.v1</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2000,29 +2100,29 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ge Gao, Tianshun Zhang, Qiushi Wang, Kanamata Reddy, Hanyong Chen, Yinglin Ke, Keke Wang, Eunmiri Roh, Tatyana A. Zykova, Weiya Ma, Joohyun Ryu, Clara Curiel‐Lewandrowski, David S. Alberts, Sally E. Dickinson, Ann M. Bode, Ying Xing, Zigang Dong</t>
+          <t>Karen Blohm-Mangone, Nichole B. Burkett, Shekha Tahsin, Paul B. Myrdal, Alhassan H. Aodah, Brenda Ho, Jaroslav Janda, Michelle McComas, Kathylynn Saboda, Denise J. Roe, Zigang Dong, Ann M. Bode, Emanuel F. Petricoin, Valerie Calvert, Clara Curiel‐Lewandrowski, David S. Alberts, Georg T. Wondrak, Sally E. Dickinson</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362494308</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Supplemental Figure 3 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
+          <t>https://openalex.org/W4362538977</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>Figure S1 from Pharmacological TLR4 Antagonism Using Topical Resatorvid Blocks Solar UV-Induced Skin Tumorigenesis in SKH-1 Mice</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2030,50 +2130,55 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22507689</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1940-6207.22534564.v1</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N21" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1535-7163.22507689</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1940-6207.22534564.v1</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2082,29 +2187,29 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ge Gao, Tianshun Zhang, Qiushi Wang, Kanamata Reddy, Hanyong Chen, Yinglin Ke, Keke Wang, Eunmiri Roh, Tatyana A. Zykova, Weiya Ma, Joohyun Ryu, Clara Curiel‐Lewandrowski, David S. Alberts, Sally E. Dickinson, Ann M. Bode, Ying Xing, Zigang Dong</t>
+          <t>Sally E. Dickinson, Jaroslav Janda, Jane Criswell, Karen Blohm-Mangone, Erik R. Olson, Zhonglin Liu, Christy Barber, Emanuel F. Petricoin, Valerie Calvert, Janine G. Einspahr, Jesse E. Dickinson, Steven P. Stratton, Clara Curiel‐Lewandrowski, Kathylynn Saboda, Chengcheng Hu, Ann M. Bode, Zigang Dong, David S. Alberts, G. Timothy Bowden</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362494309</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Supplemental Figure 1 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
+          <t>https://openalex.org/W4362545264</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>Data from Inhibition of Akt Enhances the Chemopreventive Effects of Topical Rapamycin in Mouse Skin</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2112,50 +2217,55 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22507695</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/1940-6207.c.6547411.v1</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N22" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1535-7163.22507695</t>
-        </is>
-      </c>
       <c r="P22" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1940-6207.c.6547411.v1</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2164,29 +2274,29 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Ge Gao, Tianshun Zhang, Qiushi Wang, Kanamata Reddy, Hanyong Chen, Yinglin Ke, Keke Wang, Eunmiri Roh, Tatyana A. Zykova, Weiya Ma, Joohyun Ryu, Clara Curiel‐Lewandrowski, David S. Alberts, Sally E. Dickinson, Ann M. Bode, Ying Xing, Zigang Dong</t>
+          <t>Karen Blohm-Mangone, Nichole B. Burkett, Shekha Tahsin, Paul B. Myrdal, Alhassan H. Aodah, Brenda Ho, Jaroslav Janda, Michelle McComas, Kathylynn Saboda, Denise J. Roe, Zigang Dong, Ann M. Bode, Emanuel F. Petricoin, Valerie Calvert, Clara Curiel‐Lewandrowski, David S. Alberts, Georg T. Wondrak, Sally E. Dickinson</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362494320</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Supplemental Figure 2 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
+          <t>https://openalex.org/W4362545456</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>Data from Pharmacological TLR4 Antagonism Using Topical Resatorvid Blocks Solar UV-Induced Skin Tumorigenesis in SKH-1 Mice</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2194,50 +2304,55 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22507692</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/1940-6207.c.6547552.v1</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N23" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1535-7163.22507692</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1940-6207.c.6547552.v1</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2246,29 +2361,29 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sally E. Dickinson, Jaroslav Janda, Jane Criswell, Karen Blohm-Mangone, Erik R. Olson, Zhonglin Liu, Christy Barber, Emanuel F. Petricoin, Valerie Calvert, Janine G. Einspahr, Jesse E. Dickinson, Steven P. Stratton, Clara Curiel‐Lewandrowski, Kathylynn Saboda, Chengcheng Hu, Ann M. Bode, Zigang Dong, David S. Alberts, G. Timothy Bowden</t>
+          <t>Karen Blohm-Mangone, Nichole B. Burkett, Shekha Tahsin, Paul B. Myrdal, Alhassan H. Aodah, Brenda Ho, Jaroslav Janda, Michelle McComas, Kathylynn Saboda, Denise J. Roe, Zigang Dong, Ann M. Bode, Emanuel F. Petricoin, Valerie Calvert, Clara Curiel‐Lewandrowski, David S. Alberts, Georg T. Wondrak, Sally E. Dickinson</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362531849</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Dickinson Supp Figure 1 from Inhibition of Akt Enhances the Chemopreventive Effects of Topical Rapamycin in Mouse Skin</t>
+          <t>https://openalex.org/W4362551117</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>Figure S1 from Pharmacological TLR4 Antagonism Using Topical Resatorvid Blocks Solar UV-Induced Skin Tumorigenesis in SKH-1 Mice</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2276,50 +2391,55 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.22534219</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1940-6207.22534564</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N24" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1940-6207.22534219</t>
-        </is>
-      </c>
       <c r="P24" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1940-6207.22534564</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2328,29 +2448,29 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Aleksandar Sekulić, Su Y. Kim, Galen Hostetter, Stephanie A. Savage, Janine G. Einspahr, Anil Prasad, Paul Sagerman, Clara Curiel‐Lewandrowski, Robert S. Krouse, G. Timothy Bowden, James Warneke, David S. Alberts, Mark R. Pittelkow, David J. DiCaudo, Brian J. Nickoloff, Jeffrey M. Trent, Michael Bittner</t>
+          <t>Yira Bermudez, Steven P. Stratton, Clara Curiel‐Lewandrowski, James Warneke, Chengcheng Hu, G. Tim Bowden, Sally E. Dickinson, Zigang Dong, Ann M. Bode, Kathylynn Saboda, Christine Brooks, Emanuel F. Petricoin, Craig A. Hurst, David S. Alberts, Janine G. Einspahr</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362537526</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Supplementary Figure S1 from Loss of Inositol Polyphosphate 5-Phosphatase Is an Early Event in Development of Cutaneous Squamous Cell Carcinoma</t>
+          <t>https://openalex.org/W4362568069</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>Data from Activation of the PI3K/Akt/mTOR and MAPK Signaling Pathways in Response to Acute Solar-Simulated Light Exposure of Human Skin</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2358,50 +2478,55 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.22524936.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1940-6207.c.6545171.v1</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
       <c r="K25" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N25" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1940-6207.22524936.v1</t>
-        </is>
-      </c>
       <c r="P25" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1940-6207.c.6545171.v1</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2410,29 +2535,29 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Yira Bermudez, Steven P. Stratton, Clara Curiel‐Lewandrowski, James Warneke, Chengcheng Hu, G. Tim Bowden, Sally E. Dickinson, Zigang Dong, Ann M. Bode, Kathylynn Saboda, Christine Brooks, Emanuel F. Petricoin, Craig A. Hurst, David S. Alberts, Janine G. Einspahr</t>
+          <t>Aleksandar Sekulić, Su Y. Kim, Galen Hostetter, Stephanie A. Savage, Janine G. Einspahr, Anil Prasad, Paul Sagerman, Clara Curiel‐Lewandrowski, Robert S. Krouse, G. Timothy Bowden, James Warneke, David S. Alberts, Mark R. Pittelkow, David J. DiCaudo, Brian J. Nickoloff, Jeffrey M. Trent, Michael Bittner</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362538097</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Supplementary Figure Legends from Activation of the PI3K/Akt/mTOR and MAPK Signaling Pathways in Response to Acute Solar-Simulated Light Exposure of Human Skin</t>
+          <t>https://openalex.org/W4362568441</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>Data from Loss of Inositol Polyphosphate 5-Phosphatase Is an Early Event in Development of Cutaneous Squamous Cell Carcinoma</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2440,50 +2565,55 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.22526687.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/1940-6207.c.6544491</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
       <c r="K26" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N26" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1940-6207.22526687.v1</t>
-        </is>
-      </c>
       <c r="P26" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1940-6207.c.6544491</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2492,29 +2622,29 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Yira Bermudez, Steven P. Stratton, Clara Curiel‐Lewandrowski, James Warneke, Chengcheng Hu, G. Tim Bowden, Sally E. Dickinson, Zigang Dong, Ann M. Bode, Kathylynn Saboda, Christine Brooks, Emanuel F. Petricoin, Craig A. Hurst, David S. Alberts, Janine G. Einspahr</t>
+          <t>Janine G. Einspahr, Valerie Calvert, David S. Alberts, Clara Curiel‐Lewandrowski, James Warneke, Robert S. Krouse, Steven P. Stratton, Lance A. Liotta, Caterina Longo, Giovanni Pellicani, Anil Prasad, Paul Sagerman, Yira Bermudez, Jianghong Deng, G. Timothy Bowden, Emanuel F. Petricoin</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362538328</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Supplementary Figures 1-3 from Activation of the PI3K/Akt/mTOR and MAPK Signaling Pathways in Response to Acute Solar-Simulated Light Exposure of Human Skin</t>
+          <t>https://openalex.org/W4362568491</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>Data from Functional Protein Pathway Activation Mapping of the Progression of Normal Skin to Squamous Cell Carcinoma</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2522,50 +2652,55 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.22526684.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1940-6207.c.6544719</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
       <c r="K27" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N27" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1940-6207.22526684.v1</t>
-        </is>
-      </c>
       <c r="P27" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1940-6207.c.6544719</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2574,29 +2709,29 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Karen Blohm-Mangone, Nichole B. Burkett, Shekha Tahsin, Paul B. Myrdal, Alhassan H. Aodah, Brenda Ho, Jaroslav Janda, Michelle McComas, Kathylynn Saboda, Denise J. Roe, Zigang Dong, Ann M. Bode, Emanuel F. Petricoin, Valerie Calvert, Clara Curiel‐Lewandrowski, David S. Alberts, Georg T. Wondrak, Sally E. Dickinson</t>
+          <t>Aleksandar Sekulić, Su Y. Kim, Galen Hostetter, Stephanie A. Savage, Janine G. Einspahr, Anil Prasad, Paul Sagerman, Clara Curiel‐Lewandrowski, Robert S. Krouse, G. Timothy Bowden, James Warneke, David S. Alberts, Mark R. Pittelkow, David J. DiCaudo, Brian J. Nickoloff, Jeffrey M. Trent, Michael Bittner</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362538977</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Figure S1 from Pharmacological TLR4 Antagonism Using Topical Resatorvid Blocks Solar UV-Induced Skin Tumorigenesis in SKH-1 Mice</t>
+          <t>https://openalex.org/W4362615357</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>Supplementary Figure S1 from Loss of Inositol Polyphosphate 5-Phosphatase Is an Early Event in Development of Cutaneous Squamous Cell Carcinoma</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2604,50 +2739,55 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.22534564.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1940-6207.22524936</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N28" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1940-6207.22534564.v1</t>
-        </is>
-      </c>
       <c r="P28" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1940-6207.22524936</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2656,29 +2796,29 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sally E. Dickinson, Jaroslav Janda, Jane Criswell, Karen Blohm-Mangone, Erik R. Olson, Zhonglin Liu, Christy Barber, Emanuel F. Petricoin, Valerie Calvert, Janine G. Einspahr, Jesse E. Dickinson, Steven P. Stratton, Clara Curiel‐Lewandrowski, Kathylynn Saboda, Chengcheng Hu, Ann M. Bode, Zigang Dong, David S. Alberts, G. Timothy Bowden</t>
+          <t>Yira Bermudez, Steven P. Stratton, Clara Curiel‐Lewandrowski, James Warneke, Chengcheng Hu, G. Tim Bowden, Sally E. Dickinson, Zigang Dong, Ann M. Bode, Kathylynn Saboda, Christine Brooks, Emanuel F. Petricoin, Craig A. Hurst, David S. Alberts, Janine G. Einspahr</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362545264</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Data from Inhibition of Akt Enhances the Chemopreventive Effects of Topical Rapamycin in Mouse Skin</t>
+          <t>https://openalex.org/W4362615831</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>Supplementary Figures 1-3 from Activation of the PI3K/Akt/mTOR and MAPK Signaling Pathways in Response to Acute Solar-Simulated Light Exposure of Human Skin</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2686,50 +2826,55 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.c.6547411.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1940-6207.22526684</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
       <c r="K29" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N29" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1940-6207.c.6547411.v1</t>
-        </is>
-      </c>
       <c r="P29" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1940-6207.22526684</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2738,29 +2883,29 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Karen Blohm-Mangone, Nichole B. Burkett, Shekha Tahsin, Paul B. Myrdal, Alhassan H. Aodah, Brenda Ho, Jaroslav Janda, Michelle McComas, Kathylynn Saboda, Denise J. Roe, Zigang Dong, Ann M. Bode, Emanuel F. Petricoin, Valerie Calvert, Clara Curiel‐Lewandrowski, David S. Alberts, Georg T. Wondrak, Sally E. Dickinson</t>
+          <t>Yira Bermudez, Steven P. Stratton, Clara Curiel‐Lewandrowski, James Warneke, Chengcheng Hu, G. Tim Bowden, Sally E. Dickinson, Zigang Dong, Ann M. Bode, Kathylynn Saboda, Christine Brooks, Emanuel F. Petricoin, Craig A. Hurst, David S. Alberts, Janine G. Einspahr</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362545456</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Data from Pharmacological TLR4 Antagonism Using Topical Resatorvid Blocks Solar UV-Induced Skin Tumorigenesis in SKH-1 Mice</t>
+          <t>https://openalex.org/W4362615947</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>Supplementary Figure Legends from Activation of the PI3K/Akt/mTOR and MAPK Signaling Pathways in Response to Acute Solar-Simulated Light Exposure of Human Skin</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2768,50 +2913,55 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.c.6547552.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1940-6207.22526687</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N30" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1940-6207.c.6547552.v1</t>
-        </is>
-      </c>
       <c r="P30" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1940-6207.22526687</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2820,29 +2970,29 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Karen Blohm-Mangone, Nichole B. Burkett, Shekha Tahsin, Paul B. Myrdal, Alhassan H. Aodah, Brenda Ho, Jaroslav Janda, Michelle McComas, Kathylynn Saboda, Denise J. Roe, Zigang Dong, Ann M. Bode, Emanuel F. Petricoin, Valerie Calvert, Clara Curiel‐Lewandrowski, David S. Alberts, Georg T. Wondrak, Sally E. Dickinson</t>
+          <t>Sally E. Dickinson, Jaroslav Janda, Jane Criswell, Karen Blohm-Mangone, Erik R. Olson, Zhonglin Liu, Christy Barber, Emanuel F. Petricoin, Valerie Calvert, Janine G. Einspahr, Jesse E. Dickinson, Steven P. Stratton, Clara Curiel‐Lewandrowski, Kathylynn Saboda, Chengcheng Hu, Ann M. Bode, Zigang Dong, David S. Alberts, G. Timothy Bowden</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362551117</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Figure S1 from Pharmacological TLR4 Antagonism Using Topical Resatorvid Blocks Solar UV-Induced Skin Tumorigenesis in SKH-1 Mice</t>
+          <t>https://openalex.org/W4362636035</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>Dickinson Supp Figure 1 from Inhibition of Akt Enhances the Chemopreventive Effects of Topical Rapamycin in Mouse Skin</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2850,50 +3000,55 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.22534564</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1940-6207.22534219.v1</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N31" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1940-6207.22534564</t>
-        </is>
-      </c>
       <c r="P31" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1940-6207.22534219.v1</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2902,80 +3057,85 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Yira Bermudez, Steven P. Stratton, Clara Curiel‐Lewandrowski, James Warneke, Chengcheng Hu, G. Tim Bowden, Sally E. Dickinson, Zigang Dong, Ann M. Bode, Kathylynn Saboda, Christine Brooks, Emanuel F. Petricoin, Craig A. Hurst, David S. Alberts, Janine G. Einspahr</t>
+          <t>Brenna G. Kelly, M Herold, Clara Curiel‐Lewandrowski</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362568069</t>
+          <t>concerning this article should be addressed to Brenna Kelly, BA, Division of Dermatology, University of Arizona, 1501 N. Campbell Avenue, Tucson, AZ 85724. E-mail: [email protected]; Mitch Herold, MD, Division of Dermatology, University of Arizona, Tucson, AZ.; Brenna G. Kelly, BA, Division of Dermatology, Medical College of Wisconsin, Milwaukee, WI.; Clara Curiel-Lewandrowski, MD, Division of Dermatology, University of Arizona, Tucson, AZ.; The authors declare no conflict of interest.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Data from Activation of the PI3K/Akt/mTOR and MAPK Signaling Pathways in Response to Acute Solar-Simulated Light Exposure of Human Skin</t>
+          <t>https://openalex.org/W4376868631</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>Impaired Dermatoscopic Visualization in a Patient With Ichthyosis Vulgaris Undergoing Complete Skin Examination</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Journal of the Dermatology Nurses’ Association</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.c.6545171.v1</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1097/jdn.0000000000000734</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N32" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1940-6207.c.6545171.v1</t>
-        </is>
-      </c>
       <c r="P32" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1097/jdn.0000000000000734</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2984,80 +3144,85 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Aleksandar Sekulić, Su Y. Kim, Galen Hostetter, Stephanie A. Savage, Janine G. Einspahr, Anil Prasad, Paul Sagerman, Clara Curiel‐Lewandrowski, Robert S. Krouse, G. Timothy Bowden, James Warneke, David S. Alberts, Mark R. Pittelkow, David J. DiCaudo, Brian J. Nickoloff, Jeffrey M. Trent, Michael Bittner</t>
+          <t>Prajakta Vaishampayan, Jana Jandova, Yueqin Ai, Viktoria Kirschnerova, Clara Curiel‐Lewandrowski, Georg T. Wondrak, Sally E. Dickinson</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362568441</t>
+          <t>1University of Arizona, Tucson, AZ.; 1University of Arizona, Tucson, AZ.; 1University of Arizona, Tucson, AZ.; 1University of Arizona, Tucson, AZ.; 1University of Arizona, Tucson, AZ.; 1University of Arizona, Tucson, AZ.; 1University of Arizona, Tucson, AZ.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Data from Loss of Inositol Polyphosphate 5-Phosphatase Is an Early Event in Development of Cutaneous Squamous Cell Carcinoma</t>
+          <t>https://openalex.org/W4379984324</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>Abstract 5254: Topical inhibition of UV-induced PD-L1 expression and inflammatory signaling by the small molecule inhibitor BMS-202</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Cancer Research</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.c.6544491</t>
+          <t>American Association for Cancer Research</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1538-7445.am2023-5254</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N33" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1940-6207.c.6544491</t>
-        </is>
-      </c>
       <c r="P33" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1538-7445.am2023-5254</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3066,27 +3231,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Janine G. Einspahr, Valerie Calvert, David S. Alberts, Clara Curiel‐Lewandrowski, James Warneke, Robert S. Krouse, Steven P. Stratton, Lance A. Liotta, Caterina Longo, Giovanni Pellicani, Anil Prasad, Paul Sagerman, Yira Bermudez, Jianghong Deng, G. Timothy Bowden, Emanuel F. Petricoin</t>
+          <t>Rafael Ramírez Romero, Jingwei Zhao, Delaney B. Stratton, Clara Curiel, Dongkyun Kang</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362568491</t>
+          <t>Department of Biomedical Engineering, University of Arizona, Tucson, Arizona, 85721, USA; James C. Wyant College of Optical Sciences, University of Arizona, Tucson, Arizona, 85721, USA; College of Medicine, University of Arizona, Tucson, Arizona, 85721, USA; College of Medicine, University of Arizona, Tucson, Arizona, 85721, USA; Department of Biomedical Engineering, University of Arizona, Tucson, Arizona, 85721, USA; James C. Wyant College of Optical Sciences, University of Arizona, Tucson, Arizona, 85721, USA</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Data from Functional Protein Pathway Activation Mapping of the Progression of Normal Skin to Squamous Cell Carcinoma</t>
+          <t>https://openalex.org/W4381492170</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>Cross-Polarized Microscopy of Pigmented Cells In Vivo</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3096,50 +3261,55 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.c.6544719</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1364/ntm.2023.nw1c.3</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N34" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1940-6207.c.6544719</t>
-        </is>
-      </c>
       <c r="P34" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1364/ntm.2023.nw1c.3</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3148,80 +3318,85 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Steven P. Stratton, David S. Alberts, Janine G. Einspahr, Paul Sagerman, James Warneke, Clara Curiel‐Lewandrowski, Paul B. Myrdal, Kelly L. Karlage, Brian J. Nickoloff, Chris Brooks, Kathylynn Saboda, Michael Yozwiak, Mary Krutzsch, Chengcheng Hu, Maria Lluria-Prevatt, Zigang Dong, G. Timothy Bowden, Peter H. Bartels</t>
+          <t>Sabrina Dahak, Jennifer M. Fernandez, Jenna E. Koblinski, Clara Curiel‐Lewandrowski, Rebecca Thiede</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362615002</t>
+          <t>University of Arizona College of Medicine - Phoenix; University of Nebraska Medical Center, Department of Dermatology; Emory University School of Medicine, Department of Dermatology; University of Arizona, College of Medicine – Tucson, Department of Medicine, Division of Dermatology; University of Arizona, College of Medicine – Tucson, Department of Medicine, Division of Dermatology</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Perspective on this Article from A Phase 2a Study of Topical Perillyl Alcohol Cream for Chemoprevention of Skin Cancer</t>
+          <t>https://openalex.org/W4387015691</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>42131 Pediatric and Adolescent Melanoma: An Analysis of Gender Differences in Frequency and Overall Survival by Histologic Subtype</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Journal of the American Academy of Dermatology</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.22524051</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1016/j.jaad.2023.07.821</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N35" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1940-6207.22524051</t>
-        </is>
-      </c>
       <c r="P35" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.jaad.2023.07.821</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3230,80 +3405,85 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Aleksandar Sekulić, Su Y. Kim, Galen Hostetter, Stephanie A. Savage, Janine G. Einspahr, Anil Prasad, Paul Sagerman, Clara Curiel‐Lewandrowski, Robert S. Krouse, G. Timothy Bowden, James Warneke, David S. Alberts, Mark R. Pittelkow, David J. DiCaudo, Brian J. Nickoloff, Jeffrey M. Trent, Michael Bittner</t>
+          <t>Basanth Babu Eedara, Bhagyashree Manivannan, Wafaa Alabsi, Bo Sun, Clara Curiel‐Lewandrowski, Tianshun Zhang, Ann M. Bode, Heidi M. Mansour</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362615357</t>
+          <t>Center for Translational Science, Florida International University, Port St. Lucie, FL 34987, USA; Center for Translational Science, Florida International University, Port St. Lucie, FL 34987, USA; Skaggs Pharmaceutical Sciences Center, College of Pharmacy, The University of Arizona, Tucson, AZ 85721, USA; Skaggs Pharmaceutical Sciences Center, College of Pharmacy, The University of Arizona, Tucson, AZ 85721, USA; Department of Medicine, Division of Dermatology, College of Medicine, The University of Arizona, Tucson, AZ 85724, USA; Skin Cancer Institute, The University of Arizona Cancer Center, Tucson, AZ 85724, USA; University of Arizona Cancer Center, University of Arizona, Tucson, AZ 85724, USA; The Hormel Institute, University of Minnesota, Austin, MN 55912, USA; The Hormel Institute, University of Minnesota, Austin, MN 55912, USA; Center for Translational Science, Florida International University, Port St. Lucie, FL 34987, USA; Department of Cell Biology &amp; Pharmacology, Herbert Wertheim College of Medicine, Florida International University, Miami, FL 33199, USA; Department of Environmental Health Sciences, Robert Stempel College of Public Health and Social Work, Florida International University, Miami, FL 33199, USA</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Supplementary Figure S1 from Loss of Inositol Polyphosphate 5-Phosphatase Is an Early Event in Development of Cutaneous Squamous Cell Carcinoma</t>
+          <t>https://openalex.org/W4387906408</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>Comprehensive Physicochemical Characterization, In Vitro Membrane Permeation, and In Vitro Human Skin Cell Culture of a Novel TOPK Inhibitor, HI-TOPK-032</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-10-24</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>International Journal of Molecular Sciences</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.22524936</t>
+          <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
+          <t>https://doi.org/10.3390/ijms242115515</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.22524936</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37958502</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3390/ijms242115515</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3312,29 +3492,29 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Yira Bermudez, Steven P. Stratton, Clara Curiel‐Lewandrowski, James Warneke, Chengcheng Hu, G. Tim Bowden, Sally E. Dickinson, Zigang Dong, Ann M. Bode, Kathylynn Saboda, Christine Brooks, Emanuel F. Petricoin, Craig A. Hurst, David S. Alberts, Janine G. Einspahr</t>
+          <t>Ge Gao, Tianshun Zhang, Qiushi Wang, Kanamata Reddy, Hanyong Chen, Yinglin Ke, Keke Wang, Eunmiri Roh, Tatyana A. Zykova, Weiya Ma, Joohyun Ryu, Clara Curiel‐Lewandrowski, David S. Alberts, Sally E. Dickinson, Ann M. Bode, Ying Xing, Zigang Dong</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362615831</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Supplementary Figures 1-3 from Activation of the PI3K/Akt/mTOR and MAPK Signaling Pathways in Response to Acute Solar-Simulated Light Exposure of Human Skin</t>
+          <t>https://openalex.org/W4362484936</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>Supplemental Figure 6 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F37" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -3342,50 +3522,55 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.22526684</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1535-7163.22507680.v1</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
       <c r="K37" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N37" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1940-6207.22526684</t>
-        </is>
-      </c>
       <c r="P37" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.22507680.v1</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3394,29 +3579,29 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Yira Bermudez, Steven P. Stratton, Clara Curiel‐Lewandrowski, James Warneke, Chengcheng Hu, G. Tim Bowden, Sally E. Dickinson, Zigang Dong, Ann M. Bode, Kathylynn Saboda, Christine Brooks, Emanuel F. Petricoin, Craig A. Hurst, David S. Alberts, Janine G. Einspahr</t>
+          <t>Ge Gao, Tianshun Zhang, Qiushi Wang, Kanamata Reddy, Hanyong Chen, Yinglin Ke, Keke Wang, Eunmiri Roh, Tatyana A. Zykova, Weiya Ma, Joohyun Ryu, Clara Curiel‐Lewandrowski, David S. Alberts, Sally E. Dickinson, Ann M. Bode, Ying Xing, Zigang Dong</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362615947</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Supplementary Figure Legends from Activation of the PI3K/Akt/mTOR and MAPK Signaling Pathways in Response to Acute Solar-Simulated Light Exposure of Human Skin</t>
+          <t>https://openalex.org/W4362485065</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>Supplemental Figure 2 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F38" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -3424,50 +3609,55 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.22526687</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1535-7163.22507692.v1</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
       <c r="K38" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N38" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1940-6207.22526687</t>
-        </is>
-      </c>
       <c r="P38" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.22507692.v1</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3476,29 +3666,29 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Steven P. Stratton, David S. Alberts, Janine G. Einspahr, Paul Sagerman, James Warneke, Clara Curiel‐Lewandrowski, Paul B. Myrdal, Kelly L. Karlage, Brian J. Nickoloff, Chris Brooks, Kathylynn Saboda, Michael Yozwiak, Mary Krutzsch, Chengcheng Hu, Maria Lluria-Prevatt, Zigang Dong, G. Timothy Bowden, Peter H. Bartels</t>
+          <t>Ge Gao, Tianshun Zhang, Qiushi Wang, Kanamata Reddy, Hanyong Chen, Yinglin Ke, Keke Wang, Eunmiri Roh, Tatyana A. Zykova, Weiya Ma, Joohyun Ryu, Clara Curiel‐Lewandrowski, David S. Alberts, Sally E. Dickinson, Ann M. Bode, Ying Xing, Zigang Dong</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362625072</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Perspective on this Article from A Phase 2a Study of Topical Perillyl Alcohol Cream for Chemoprevention of Skin Cancer</t>
+          <t>https://openalex.org/W4362493314</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>Data from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -3506,50 +3696,55 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.22524051.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/1535-7163.c.6538761.v1</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N39" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1940-6207.22524051.v1</t>
-        </is>
-      </c>
       <c r="P39" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.c.6538761.v1</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3558,29 +3753,29 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sally E. Dickinson, Jaroslav Janda, Jane Criswell, Karen Blohm-Mangone, Erik R. Olson, Zhonglin Liu, Christy Barber, Emanuel F. Petricoin, Valerie Calvert, Janine G. Einspahr, Jesse E. Dickinson, Steven P. Stratton, Clara Curiel‐Lewandrowski, Kathylynn Saboda, Chengcheng Hu, Ann M. Bode, Zigang Dong, David S. Alberts, G. Timothy Bowden</t>
+          <t>Ge Gao, Tianshun Zhang, Qiushi Wang, Kanamata Reddy, Hanyong Chen, Yinglin Ke, Keke Wang, Eunmiri Roh, Tatyana A. Zykova, Weiya Ma, Joohyun Ryu, Clara Curiel‐Lewandrowski, David S. Alberts, Sally E. Dickinson, Ann M. Bode, Ying Xing, Zigang Dong</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362636035</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Dickinson Supp Figure 1 from Inhibition of Akt Enhances the Chemopreventive Effects of Topical Rapamycin in Mouse Skin</t>
+          <t>https://openalex.org/W4362494214</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>Supplemental Figure 4 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F40" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -3588,50 +3783,55 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.22534219.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1535-7163.22507686</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N40" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1940-6207.22534219.v1</t>
-        </is>
-      </c>
       <c r="P40" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.22507686</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3640,80 +3840,85 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Brenna G. Kelly, M Herold, Clara Curiel‐Lewandrowski</t>
+          <t>Ge Gao, Tianshun Zhang, Qiushi Wang, Kanamata Reddy, Hanyong Chen, Yinglin Ke, Keke Wang, Eunmiri Roh, Tatyana A. Zykova, Weiya Ma, Joohyun Ryu, Clara Curiel‐Lewandrowski, David S. Alberts, Sally E. Dickinson, Ann M. Bode, Ying Xing, Zigang Dong</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4376868631</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Impaired Dermatoscopic Visualization in a Patient With Ichthyosis Vulgaris Undergoing Complete Skin Examination</t>
+          <t>https://openalex.org/W4362494290</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>Supplemental Figure 6 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Journal of the Dermatology Nurses’ Association</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/jdn.0000000000000734</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1535-7163.22507680</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="M41" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N41" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1097/jdn.0000000000000734</t>
-        </is>
-      </c>
       <c r="P41" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.22507680</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3722,80 +3927,85 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Prajakta Vaishampayan, Jana Jandova, Yueqin Ai, Viktoria Kirschnerova, Clara Curiel‐Lewandrowski, Georg T. Wondrak, Sally E. Dickinson</t>
+          <t>Ge Gao, Tianshun Zhang, Qiushi Wang, Kanamata Reddy, Hanyong Chen, Yinglin Ke, Keke Wang, Eunmiri Roh, Tatyana A. Zykova, Weiya Ma, Joohyun Ryu, Clara Curiel‐Lewandrowski, David S. Alberts, Sally E. Dickinson, Ann M. Bode, Ying Xing, Zigang Dong</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4379984324</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Abstract 5254: Topical inhibition of UV-induced PD-L1 expression and inflammatory signaling by the small molecule inhibitor BMS-202</t>
+          <t>https://openalex.org/W4362494308</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>Supplemental Figure 3 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Cancer Research</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>American Association for Cancer Research</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1538-7445.am2023-5254</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1535-7163.22507689</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="M42" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N42" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1538-7445.am2023-5254</t>
-        </is>
-      </c>
       <c r="P42" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.22507689</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3804,27 +4014,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Rafael Ramírez Romero, Jingwei Zhao, Delaney B. Stratton, Clara Curiel, Dongkyun Kang</t>
+          <t>Ge Gao, Tianshun Zhang, Qiushi Wang, Kanamata Reddy, Hanyong Chen, Yinglin Ke, Keke Wang, Eunmiri Roh, Tatyana A. Zykova, Weiya Ma, Joohyun Ryu, Clara Curiel‐Lewandrowski, David S. Alberts, Sally E. Dickinson, Ann M. Bode, Ying Xing, Zigang Dong</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4381492170</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Cross-Polarized Microscopy of Pigmented Cells In Vivo</t>
+          <t>https://openalex.org/W4362494309</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>Supplemental Figure 1 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3834,50 +4044,55 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1364/ntm.2023.nw1c.3</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1535-7163.22507695</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="M43" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N43" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1364/ntm.2023.nw1c.3</t>
-        </is>
-      </c>
       <c r="P43" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.22507695</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3886,80 +4101,85 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Rafael Ramírez Romero, Jingwei Zhao, Delaney B. Stratton, Kenneth A. Marcelino, Momoka Sugimura, Andrew W. Nichols, Salvador González, Manu Jain, Clara Curiel‐Lewandrowski, Do Kyun Kang</t>
+          <t>Steven P. Stratton, David S. Alberts, Janine G. Einspahr, Paul Sagerman, James Warneke, Clara Curiel‐Lewandrowski, Paul B. Myrdal, Kelly L. Karlage, Brian J. Nickoloff, Chris Brooks, Kathylynn Saboda, Michael Yozwiak, Mary Krutzsch, Chengcheng Hu, Maria Lluria-Prevatt, Zigang Dong, G. Timothy Bowden, Peter H. Bartels</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386623657</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Handheld cross‐polarized microscope for imaging individual pigmented cells in human skin in vivo</t>
+          <t>https://openalex.org/W4362615002</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2023-09-17</t>
+          <t>Perspective on this Article from A Phase 2a Study of Topical Perillyl Alcohol Cream for Chemoprevention of Skin Cancer</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Journal of Microscopy</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Wiley-Blackwell</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/jmi.13225</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1940-6207.22524051</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="M44" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37698068</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/jmi.13225</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1940-6207.22524051</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3968,80 +4188,85 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sabrina Dahak, Jennifer M. Fernandez, Jenna E. Koblinski, Clara Curiel‐Lewandrowski, Rebecca Thiede</t>
+          <t>Steven P. Stratton, David S. Alberts, Janine G. Einspahr, Paul Sagerman, James Warneke, Clara Curiel‐Lewandrowski, Paul B. Myrdal, Kelly L. Karlage, Brian J. Nickoloff, Chris Brooks, Kathylynn Saboda, Michael Yozwiak, Mary Krutzsch, Chengcheng Hu, Maria Lluria-Prevatt, Zigang Dong, G. Timothy Bowden, Peter H. Bartels</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387015691</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>42131 Pediatric and Adolescent Melanoma: An Analysis of Gender Differences in Frequency and Overall Survival by Histologic Subtype</t>
+          <t>https://openalex.org/W4362625072</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>Perspective on this Article from A Phase 2a Study of Topical Perillyl Alcohol Cream for Chemoprevention of Skin Cancer</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Journal of the American Academy of Dermatology</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jaad.2023.07.821</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1940-6207.22524051.v1</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="M45" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N45" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.jaad.2023.07.821</t>
-        </is>
-      </c>
       <c r="P45" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1940-6207.22524051.v1</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4050,80 +4275,85 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Basanth Babu Eedara, Bhagyashree Manivannan, Wafaa Alabsi, Bo Sun, Clara Curiel‐Lewandrowski, Tianshun Zhang, Ann M. Bode, Heidi M. Mansour</t>
+          <t>Rafael Ramírez Romero, Jingwei Zhao, Delaney B. Stratton, Kenneth A. Marcelino, Momoka Sugimura, Andrew W. Nichols, Salvador González, Manu Jain, Clara Curiel‐Lewandrowski, Do Kyun Kang</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387906408</t>
+          <t>Department of Biomedical Engineering, University of Arizona, Tucson, AZ, USA; College of Optical Sciences, University of Arizona, Tucson, AZ, USA; College of Medicine-Tucson, University of Arizona, Tucson, AZ, USA; College of Optical Sciences, University of Arizona, Tucson, AZ, USA; College of Optical Sciences, University of Arizona, Tucson, AZ, USA; College of Optical Sciences, University of Arizona, Tucson, AZ, USA; Department of Medicine and Medical Specialties Alcalá University of Madrid  Spain; Memorial Sloan Kettering Cancer Center, New York, NY, USA; College of Medicine-Tucson, University of Arizona, Tucson, AZ, USA; College of Optical Sciences, University of Arizona, Tucson, AZ, USA; Department of Biomedical Engineering, University of Arizona, Tucson, AZ, USA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Comprehensive Physicochemical Characterization, In Vitro Membrane Permeation, and In Vitro Human Skin Cell Culture of a Novel TOPK Inhibitor, HI-TOPK-032</t>
+          <t>https://openalex.org/W4386623657</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2023-10-24</t>
+          <t>Handheld cross‐polarized microscope for imaging individual pigmented cells in human skin in vivo</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>International Journal of Molecular Sciences</t>
+          <t>2023-09-17</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Multidisciplinary Digital Publishing Institute</t>
+          <t>Journal of Microscopy</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/ijms242115515</t>
+          <t>Wiley-Blackwell</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1111/jmi.13225</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
       <c r="K46" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="M46" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37958502</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/ijms242115515</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37698068</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/jmi.13225</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Clara N Curiel_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Clara N Curiel_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,7 +447,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mohammed Kashani‐Sabet, Sancy A. Leachman, Jennifer A. Stein, Jack L. Arbiser, Elizabeth Berry, Jülide Tok Çelebi, Clara Curiel‐Lewandrowski, Laura K. Ferris, Jane M. Grant‐Kels, Douglas Grossman, Rajan P. Kulkarni, Michael A. Marchetti, Kelly C. Nelson, David Polsky, Elizabeth V. Seiverling, Susan M. Swetter, Hensin Tsao, Alexandra Verdieck-Devlaeminck, Maria L. Wei, Anna Bar, Edmund K. Bartlett, Jean L. Bolognia, Tawnya L. Bowles, B. Kelly, Emily Y. Chu, Rebecca I. Hartman, Elena B. Hawryluk, Risa M Jampel, Lilit Karapetyan, Meenal Kheterpal, David H. Lawson, Philip D. Leming, Tracey N. Liebman, Michael E. Ming, Debjani Sahni, Stephanie Savory, Saba Shaikh, Arthur J. Sober, Vernon K. Sondak, Natalie Spaccarelli, Richard P. Usatine, Suraj Venna, John M. Kirkwood</t>
+          <t>Mohammed Kashani‐Sabet, Sancy A. Leachman, Jennifer A. Stein, Jack L. Arbiser, Elizabeth Berry, Jülide Tok Çelebi, Clara Curiel‐Lewandrowski, Laura K. Ferris, Jane M. Grant‐Kels, Douglas Grossman, Rajan P. Kulkarni, Michael A. Marchetti, Kelly C. Nelson, David Polsky, Elizabeth V. Seiverling, Susan M. Swetter, Hensin Tsao, Alexandra Verdieck-Devlaeminck, Maria L. Wei, Anna Bar, Edmund K. Bartlett, Jean L. Bolognia, Tawnya L. Bowles, B. Kelly, Emily Y. Chu, Rebecca I. Hartman, Elena B. Hawryluk, Risa M Jampel, Lilit Karapetyan, Meenal Kheterpal, David H. Lawson, Philip D. Leming, Tracey N. Liebman, Michael E. Ming, Debjani Sahni, Stephanie Savory, Saba Shaikh, Arthur J. Sober, Vernon K. Sondak, Natalie Spaccarelli, Richard P. Usatine, Suraj S. Venna, John M. Kirkwood</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1066,12 +1066,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362484971</t>
+          <t>https://openalex.org/W4362484936</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Supplemental Figure 1 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
+          <t>Supplemental Figure 6 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22507695.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22507680.v1</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22507695.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22507680.v1</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1143,22 +1143,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Janine G. Einspahr, Valerie Calvert, David S. Alberts, Clara Curiel‐Lewandrowski, James Warneke, Robert S. Krouse, Steven P. Stratton, Lance A. Liotta, Caterina Longo, Giovanni Pellicani, Anil Prasad, Paul Sagerman, Yira Bermudez, Jianghong Deng, G. Timothy Bowden, Emanuel F. Petricoin</t>
+          <t>Ge Gao, Tianshun Zhang, Qiushi Wang, Kanamata Reddy, Hanyong Chen, Yinglin Ke, Keke Wang, Eunmiri Roh, Tatyana A. Zykova, Weiya Ma, Joohyun Ryu, Clara Curiel‐Lewandrowski, David S. Alberts, Sally E. Dickinson, Ann M. Bode, Ying Xing, Zigang Dong</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362484973</t>
+          <t>https://openalex.org/W4362484971</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Supplementary Table 1 from Functional Protein Pathway Activation Mapping of the Progression of Normal Skin to Squamous Cell Carcinoma</t>
+          <t>Supplemental Figure 1 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.22525377</t>
+          <t>https://doi.org/10.1158/1535-7163.22507695.v1</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.22525377</t>
+          <t>https://doi.org/10.1158/1535-7163.22507695.v1</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1230,22 +1230,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ge Gao, Tianshun Zhang, Qiushi Wang, Kanamata Reddy, Hanyong Chen, Yinglin Ke, Keke Wang, Eunmiri Roh, Tatyana A. Zykova, Weiya Ma, Joohyun Ryu, Clara Curiel‐Lewandrowski, David S. Alberts, Sally E. Dickinson, Ann M. Bode, Ying Xing, Zigang Dong</t>
+          <t>Janine G. Einspahr, Valerie Calvert, David S. Alberts, Clara Curiel‐Lewandrowski, James Warneke, Robert S. Krouse, Steven P. Stratton, Lance A. Liotta, Caterina Longo, Giovanni Pellicani, Anil Prasad, Paul Sagerman, Yira Bermudez, Jianghong Deng, G. Timothy Bowden, Emanuel F. Petricoin</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362485096</t>
+          <t>https://openalex.org/W4362484973</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Supplemental Figure 4 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
+          <t>Supplementary Table 1 from Functional Protein Pathway Activation Mapping of the Progression of Normal Skin to Squamous Cell Carcinoma</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22507686.v1</t>
+          <t>https://doi.org/10.1158/1940-6207.22525377</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22507686.v1</t>
+          <t>https://doi.org/10.1158/1940-6207.22525377</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1327,12 +1327,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362485101</t>
+          <t>https://openalex.org/W4362485065</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Supplemental Figure 3 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
+          <t>Supplemental Figure 2 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22507689.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22507692.v1</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22507689.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22507692.v1</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362494170</t>
+          <t>https://openalex.org/W4362485096</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Data from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
+          <t>Supplemental Figure 4 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1439,12 +1439,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.c.6538761</t>
+          <t>https://doi.org/10.1158/1535-7163.22507686.v1</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.c.6538761</t>
+          <t>https://doi.org/10.1158/1535-7163.22507686.v1</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1501,12 +1501,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362494202</t>
+          <t>https://openalex.org/W4362485101</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Supplemental Figure 5 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
+          <t>Supplemental Figure 3 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22507683</t>
+          <t>https://doi.org/10.1158/1535-7163.22507689.v1</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22507683</t>
+          <t>https://doi.org/10.1158/1535-7163.22507689.v1</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1588,12 +1588,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362494263</t>
+          <t>https://openalex.org/W4362493314</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Supplemental Figure Legend from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
+          <t>Data from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1613,12 +1613,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22507677</t>
+          <t>https://doi.org/10.1158/1535-7163.c.6538761.v1</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>nl</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22507677</t>
+          <t>https://doi.org/10.1158/1535-7163.c.6538761.v1</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1675,12 +1675,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362494320</t>
+          <t>https://openalex.org/W4362494170</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Supplemental Figure 2 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
+          <t>Data from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1700,12 +1700,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22507692</t>
+          <t>https://doi.org/10.1158/1535-7163.c.6538761</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22507692</t>
+          <t>https://doi.org/10.1158/1535-7163.c.6538761</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -1752,22 +1752,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sally E. Dickinson, Jaroslav Janda, Jane Criswell, Karen Blohm-Mangone, Erik R. Olson, Zhonglin Liu, Christy Barber, Emanuel F. Petricoin, Valerie Calvert, Janine G. Einspahr, Jesse E. Dickinson, Steven P. Stratton, Clara Curiel‐Lewandrowski, Kathylynn Saboda, Chengcheng Hu, Ann M. Bode, Zigang Dong, David S. Alberts, G. Timothy Bowden</t>
+          <t>Ge Gao, Tianshun Zhang, Qiushi Wang, Kanamata Reddy, Hanyong Chen, Yinglin Ke, Keke Wang, Eunmiri Roh, Tatyana A. Zykova, Weiya Ma, Joohyun Ryu, Clara Curiel‐Lewandrowski, David S. Alberts, Sally E. Dickinson, Ann M. Bode, Ying Xing, Zigang Dong</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362531849</t>
+          <t>https://openalex.org/W4362494202</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Dickinson Supp Figure 1 from Inhibition of Akt Enhances the Chemopreventive Effects of Topical Rapamycin in Mouse Skin</t>
+          <t>Supplemental Figure 5 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.22534219</t>
+          <t>https://doi.org/10.1158/1535-7163.22507683</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.22534219</t>
+          <t>https://doi.org/10.1158/1535-7163.22507683</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -1839,7 +1839,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Aleksandar Sekulić, Su Y. Kim, Galen Hostetter, Stephanie A. Savage, Janine G. Einspahr, Anil Prasad, Paul Sagerman, Clara Curiel‐Lewandrowski, Robert S. Krouse, G. Timothy Bowden, James Warneke, David S. Alberts, Mark R. Pittelkow, David J. DiCaudo, Brian J. Nickoloff, Jeffrey M. Trent, Michael Bittner</t>
+          <t>Ge Gao, Tianshun Zhang, Qiushi Wang, Kanamata Reddy, Hanyong Chen, Yinglin Ke, Keke Wang, Eunmiri Roh, Tatyana A. Zykova, Weiya Ma, Joohyun Ryu, Clara Curiel‐Lewandrowski, David S. Alberts, Sally E. Dickinson, Ann M. Bode, Ying Xing, Zigang Dong</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362537526</t>
+          <t>https://openalex.org/W4362494214</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Supplementary Figure S1 from Loss of Inositol Polyphosphate 5-Phosphatase Is an Early Event in Development of Cutaneous Squamous Cell Carcinoma</t>
+          <t>Supplemental Figure 4 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1874,12 +1874,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.22524936.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22507686</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.22524936.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22507686</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -1926,22 +1926,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Yira Bermudez, Steven P. Stratton, Clara Curiel‐Lewandrowski, James Warneke, Chengcheng Hu, G. Tim Bowden, Sally E. Dickinson, Zigang Dong, Ann M. Bode, Kathylynn Saboda, Christine Brooks, Emanuel F. Petricoin, Craig A. Hurst, David S. Alberts, Janine G. Einspahr</t>
+          <t>Ge Gao, Tianshun Zhang, Qiushi Wang, Kanamata Reddy, Hanyong Chen, Yinglin Ke, Keke Wang, Eunmiri Roh, Tatyana A. Zykova, Weiya Ma, Joohyun Ryu, Clara Curiel‐Lewandrowski, David S. Alberts, Sally E. Dickinson, Ann M. Bode, Ying Xing, Zigang Dong</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362538097</t>
+          <t>https://openalex.org/W4362494263</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Supplementary Figure Legends from Activation of the PI3K/Akt/mTOR and MAPK Signaling Pathways in Response to Acute Solar-Simulated Light Exposure of Human Skin</t>
+          <t>Supplemental Figure Legend from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.22526687.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22507677</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>nl</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.22526687.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22507677</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2013,22 +2013,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Yira Bermudez, Steven P. Stratton, Clara Curiel‐Lewandrowski, James Warneke, Chengcheng Hu, G. Tim Bowden, Sally E. Dickinson, Zigang Dong, Ann M. Bode, Kathylynn Saboda, Christine Brooks, Emanuel F. Petricoin, Craig A. Hurst, David S. Alberts, Janine G. Einspahr</t>
+          <t>Ge Gao, Tianshun Zhang, Qiushi Wang, Kanamata Reddy, Hanyong Chen, Yinglin Ke, Keke Wang, Eunmiri Roh, Tatyana A. Zykova, Weiya Ma, Joohyun Ryu, Clara Curiel‐Lewandrowski, David S. Alberts, Sally E. Dickinson, Ann M. Bode, Ying Xing, Zigang Dong</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362538328</t>
+          <t>https://openalex.org/W4362494290</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Supplementary Figures 1-3 from Activation of the PI3K/Akt/mTOR and MAPK Signaling Pathways in Response to Acute Solar-Simulated Light Exposure of Human Skin</t>
+          <t>Supplemental Figure 6 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2048,12 +2048,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.22526684.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22507680</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.22526684.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22507680</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -2100,22 +2100,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Karen Blohm-Mangone, Nichole B. Burkett, Shekha Tahsin, Paul B. Myrdal, Alhassan H. Aodah, Brenda Ho, Jaroslav Janda, Michelle McComas, Kathylynn Saboda, Denise J. Roe, Zigang Dong, Ann M. Bode, Emanuel F. Petricoin, Valerie Calvert, Clara Curiel‐Lewandrowski, David S. Alberts, Georg T. Wondrak, Sally E. Dickinson</t>
+          <t>Ge Gao, Tianshun Zhang, Qiushi Wang, Kanamata Reddy, Hanyong Chen, Yinglin Ke, Keke Wang, Eunmiri Roh, Tatyana A. Zykova, Weiya Ma, Joohyun Ryu, Clara Curiel‐Lewandrowski, David S. Alberts, Sally E. Dickinson, Ann M. Bode, Ying Xing, Zigang Dong</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362538977</t>
+          <t>https://openalex.org/W4362494308</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Figure S1 from Pharmacological TLR4 Antagonism Using Topical Resatorvid Blocks Solar UV-Induced Skin Tumorigenesis in SKH-1 Mice</t>
+          <t>Supplemental Figure 3 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.22534564.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22507689</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.22534564.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22507689</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -2187,22 +2187,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sally E. Dickinson, Jaroslav Janda, Jane Criswell, Karen Blohm-Mangone, Erik R. Olson, Zhonglin Liu, Christy Barber, Emanuel F. Petricoin, Valerie Calvert, Janine G. Einspahr, Jesse E. Dickinson, Steven P. Stratton, Clara Curiel‐Lewandrowski, Kathylynn Saboda, Chengcheng Hu, Ann M. Bode, Zigang Dong, David S. Alberts, G. Timothy Bowden</t>
+          <t>Ge Gao, Tianshun Zhang, Qiushi Wang, Kanamata Reddy, Hanyong Chen, Yinglin Ke, Keke Wang, Eunmiri Roh, Tatyana A. Zykova, Weiya Ma, Joohyun Ryu, Clara Curiel‐Lewandrowski, David S. Alberts, Sally E. Dickinson, Ann M. Bode, Ying Xing, Zigang Dong</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362545264</t>
+          <t>https://openalex.org/W4362494309</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Data from Inhibition of Akt Enhances the Chemopreventive Effects of Topical Rapamycin in Mouse Skin</t>
+          <t>Supplemental Figure 1 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2222,12 +2222,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.c.6547411.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22507695</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.c.6547411.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22507695</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -2274,22 +2274,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Karen Blohm-Mangone, Nichole B. Burkett, Shekha Tahsin, Paul B. Myrdal, Alhassan H. Aodah, Brenda Ho, Jaroslav Janda, Michelle McComas, Kathylynn Saboda, Denise J. Roe, Zigang Dong, Ann M. Bode, Emanuel F. Petricoin, Valerie Calvert, Clara Curiel‐Lewandrowski, David S. Alberts, Georg T. Wondrak, Sally E. Dickinson</t>
+          <t>Ge Gao, Tianshun Zhang, Qiushi Wang, Kanamata Reddy, Hanyong Chen, Yinglin Ke, Keke Wang, Eunmiri Roh, Tatyana A. Zykova, Weiya Ma, Joohyun Ryu, Clara Curiel‐Lewandrowski, David S. Alberts, Sally E. Dickinson, Ann M. Bode, Ying Xing, Zigang Dong</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362545456</t>
+          <t>https://openalex.org/W4362494320</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Data from Pharmacological TLR4 Antagonism Using Topical Resatorvid Blocks Solar UV-Induced Skin Tumorigenesis in SKH-1 Mice</t>
+          <t>Supplemental Figure 2 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2309,12 +2309,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.c.6547552.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22507692</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.c.6547552.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22507692</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -2361,22 +2361,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Karen Blohm-Mangone, Nichole B. Burkett, Shekha Tahsin, Paul B. Myrdal, Alhassan H. Aodah, Brenda Ho, Jaroslav Janda, Michelle McComas, Kathylynn Saboda, Denise J. Roe, Zigang Dong, Ann M. Bode, Emanuel F. Petricoin, Valerie Calvert, Clara Curiel‐Lewandrowski, David S. Alberts, Georg T. Wondrak, Sally E. Dickinson</t>
+          <t>Sally E. Dickinson, Jaroslav Janda, Jane Criswell, Karen Blohm-Mangone, Erik R. Olson, Zhonglin Liu, Christy Barber, Emanuel F. Petricoin, Valerie Calvert, Janine G. Einspahr, Jesse E. Dickinson, Steven P. Stratton, Clara Curiel‐Lewandrowski, Kathylynn Saboda, Chengcheng Hu, Ann M. Bode, Zigang Dong, David S. Alberts, G. Timothy Bowden</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362551117</t>
+          <t>https://openalex.org/W4362531849</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Figure S1 from Pharmacological TLR4 Antagonism Using Topical Resatorvid Blocks Solar UV-Induced Skin Tumorigenesis in SKH-1 Mice</t>
+          <t>Dickinson Supp Figure 1 from Inhibition of Akt Enhances the Chemopreventive Effects of Topical Rapamycin in Mouse Skin</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.22534564</t>
+          <t>https://doi.org/10.1158/1940-6207.22534219</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.22534564</t>
+          <t>https://doi.org/10.1158/1940-6207.22534219</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -2448,22 +2448,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Yira Bermudez, Steven P. Stratton, Clara Curiel‐Lewandrowski, James Warneke, Chengcheng Hu, G. Tim Bowden, Sally E. Dickinson, Zigang Dong, Ann M. Bode, Kathylynn Saboda, Christine Brooks, Emanuel F. Petricoin, Craig A. Hurst, David S. Alberts, Janine G. Einspahr</t>
+          <t>Aleksandar Sekulić, Su Y. Kim, Galen Hostetter, Stephanie A. Savage, Janine G. Einspahr, Anil Prasad, Paul Sagerman, Clara Curiel‐Lewandrowski, Robert S. Krouse, G. Timothy Bowden, James Warneke, David S. Alberts, Mark R. Pittelkow, David J. DiCaudo, Brian J. Nickoloff, Jeffrey M. Trent, Michael Bittner</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362568069</t>
+          <t>https://openalex.org/W4362537526</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Data from Activation of the PI3K/Akt/mTOR and MAPK Signaling Pathways in Response to Acute Solar-Simulated Light Exposure of Human Skin</t>
+          <t>Supplementary Figure S1 from Loss of Inositol Polyphosphate 5-Phosphatase Is an Early Event in Development of Cutaneous Squamous Cell Carcinoma</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2483,12 +2483,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.c.6545171.v1</t>
+          <t>https://doi.org/10.1158/1940-6207.22524936.v1</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2498,7 +2498,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.c.6545171.v1</t>
+          <t>https://doi.org/10.1158/1940-6207.22524936.v1</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -2535,22 +2535,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Aleksandar Sekulić, Su Y. Kim, Galen Hostetter, Stephanie A. Savage, Janine G. Einspahr, Anil Prasad, Paul Sagerman, Clara Curiel‐Lewandrowski, Robert S. Krouse, G. Timothy Bowden, James Warneke, David S. Alberts, Mark R. Pittelkow, David J. DiCaudo, Brian J. Nickoloff, Jeffrey M. Trent, Michael Bittner</t>
+          <t>Yira Bermudez, Steven P. Stratton, Clara Curiel‐Lewandrowski, James Warneke, Chengcheng Hu, G. Tim Bowden, Sally E. Dickinson, Zigang Dong, Ann M. Bode, Kathylynn Saboda, Christine Brooks, Emanuel F. Petricoin, Craig A. Hurst, David S. Alberts, Janine G. Einspahr</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362568441</t>
+          <t>https://openalex.org/W4362538097</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Data from Loss of Inositol Polyphosphate 5-Phosphatase Is an Early Event in Development of Cutaneous Squamous Cell Carcinoma</t>
+          <t>Supplementary Figure Legends from Activation of the PI3K/Akt/mTOR and MAPK Signaling Pathways in Response to Acute Solar-Simulated Light Exposure of Human Skin</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2570,12 +2570,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.c.6544491</t>
+          <t>https://doi.org/10.1158/1940-6207.22526687.v1</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.c.6544491</t>
+          <t>https://doi.org/10.1158/1940-6207.22526687.v1</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -2622,22 +2622,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Janine G. Einspahr, Valerie Calvert, David S. Alberts, Clara Curiel‐Lewandrowski, James Warneke, Robert S. Krouse, Steven P. Stratton, Lance A. Liotta, Caterina Longo, Giovanni Pellicani, Anil Prasad, Paul Sagerman, Yira Bermudez, Jianghong Deng, G. Timothy Bowden, Emanuel F. Petricoin</t>
+          <t>Yira Bermudez, Steven P. Stratton, Clara Curiel‐Lewandrowski, James Warneke, Chengcheng Hu, G. Tim Bowden, Sally E. Dickinson, Zigang Dong, Ann M. Bode, Kathylynn Saboda, Christine Brooks, Emanuel F. Petricoin, Craig A. Hurst, David S. Alberts, Janine G. Einspahr</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362568491</t>
+          <t>https://openalex.org/W4362538328</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Data from Functional Protein Pathway Activation Mapping of the Progression of Normal Skin to Squamous Cell Carcinoma</t>
+          <t>Supplementary Figures 1-3 from Activation of the PI3K/Akt/mTOR and MAPK Signaling Pathways in Response to Acute Solar-Simulated Light Exposure of Human Skin</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2657,12 +2657,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.c.6544719</t>
+          <t>https://doi.org/10.1158/1940-6207.22526684.v1</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.c.6544719</t>
+          <t>https://doi.org/10.1158/1940-6207.22526684.v1</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -2709,22 +2709,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Aleksandar Sekulić, Su Y. Kim, Galen Hostetter, Stephanie A. Savage, Janine G. Einspahr, Anil Prasad, Paul Sagerman, Clara Curiel‐Lewandrowski, Robert S. Krouse, G. Timothy Bowden, James Warneke, David S. Alberts, Mark R. Pittelkow, David J. DiCaudo, Brian J. Nickoloff, Jeffrey M. Trent, Michael Bittner</t>
+          <t>Karen Blohm-Mangone, Nichole B. Burkett, Shekha Tahsin, Paul B. Myrdal, Alhassan H. Aodah, Brenda Ho, Jaroslav Janda, Michelle McComas, Kathylynn Saboda, Denise J. Roe, Zigang Dong, Ann M. Bode, Emanuel F. Petricoin, Valerie Calvert, Clara Curiel‐Lewandrowski, David S. Alberts, Georg T. Wondrak, Sally E. Dickinson</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362615357</t>
+          <t>https://openalex.org/W4362538977</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Supplementary Figure S1 from Loss of Inositol Polyphosphate 5-Phosphatase Is an Early Event in Development of Cutaneous Squamous Cell Carcinoma</t>
+          <t>Figure S1 from Pharmacological TLR4 Antagonism Using Topical Resatorvid Blocks Solar UV-Induced Skin Tumorigenesis in SKH-1 Mice</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2744,7 +2744,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.22524936</t>
+          <t>https://doi.org/10.1158/1940-6207.22534564.v1</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.22524936</t>
+          <t>https://doi.org/10.1158/1940-6207.22534564.v1</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -2796,22 +2796,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Yira Bermudez, Steven P. Stratton, Clara Curiel‐Lewandrowski, James Warneke, Chengcheng Hu, G. Tim Bowden, Sally E. Dickinson, Zigang Dong, Ann M. Bode, Kathylynn Saboda, Christine Brooks, Emanuel F. Petricoin, Craig A. Hurst, David S. Alberts, Janine G. Einspahr</t>
+          <t>Sally E. Dickinson, Jaroslav Janda, Jane Criswell, Karen Blohm-Mangone, Erik R. Olson, Zhonglin Liu, Christy Barber, Emanuel F. Petricoin, Valerie Calvert, Janine G. Einspahr, Jesse E. Dickinson, Steven P. Stratton, Clara Curiel‐Lewandrowski, Kathylynn Saboda, Chengcheng Hu, Ann M. Bode, Zigang Dong, David S. Alberts, G. Timothy Bowden</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362615831</t>
+          <t>https://openalex.org/W4362545264</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Supplementary Figures 1-3 from Activation of the PI3K/Akt/mTOR and MAPK Signaling Pathways in Response to Acute Solar-Simulated Light Exposure of Human Skin</t>
+          <t>Data from Inhibition of Akt Enhances the Chemopreventive Effects of Topical Rapamycin in Mouse Skin</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2831,12 +2831,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.22526684</t>
+          <t>https://doi.org/10.1158/1940-6207.c.6547411.v1</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.22526684</t>
+          <t>https://doi.org/10.1158/1940-6207.c.6547411.v1</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -2883,22 +2883,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Yira Bermudez, Steven P. Stratton, Clara Curiel‐Lewandrowski, James Warneke, Chengcheng Hu, G. Tim Bowden, Sally E. Dickinson, Zigang Dong, Ann M. Bode, Kathylynn Saboda, Christine Brooks, Emanuel F. Petricoin, Craig A. Hurst, David S. Alberts, Janine G. Einspahr</t>
+          <t>Karen Blohm-Mangone, Nichole B. Burkett, Shekha Tahsin, Paul B. Myrdal, Alhassan H. Aodah, Brenda Ho, Jaroslav Janda, Michelle McComas, Kathylynn Saboda, Denise J. Roe, Zigang Dong, Ann M. Bode, Emanuel F. Petricoin, Valerie Calvert, Clara Curiel‐Lewandrowski, David S. Alberts, Georg T. Wondrak, Sally E. Dickinson</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362615947</t>
+          <t>https://openalex.org/W4362545456</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Supplementary Figure Legends from Activation of the PI3K/Akt/mTOR and MAPK Signaling Pathways in Response to Acute Solar-Simulated Light Exposure of Human Skin</t>
+          <t>Data from Pharmacological TLR4 Antagonism Using Topical Resatorvid Blocks Solar UV-Induced Skin Tumorigenesis in SKH-1 Mice</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2918,12 +2918,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.22526687</t>
+          <t>https://doi.org/10.1158/1940-6207.c.6547552.v1</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.22526687</t>
+          <t>https://doi.org/10.1158/1940-6207.c.6547552.v1</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -2970,22 +2970,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sally E. Dickinson, Jaroslav Janda, Jane Criswell, Karen Blohm-Mangone, Erik R. Olson, Zhonglin Liu, Christy Barber, Emanuel F. Petricoin, Valerie Calvert, Janine G. Einspahr, Jesse E. Dickinson, Steven P. Stratton, Clara Curiel‐Lewandrowski, Kathylynn Saboda, Chengcheng Hu, Ann M. Bode, Zigang Dong, David S. Alberts, G. Timothy Bowden</t>
+          <t>Karen Blohm-Mangone, Nichole B. Burkett, Shekha Tahsin, Paul B. Myrdal, Alhassan H. Aodah, Brenda Ho, Jaroslav Janda, Michelle McComas, Kathylynn Saboda, Denise J. Roe, Zigang Dong, Ann M. Bode, Emanuel F. Petricoin, Valerie Calvert, Clara Curiel‐Lewandrowski, David S. Alberts, Georg T. Wondrak, Sally E. Dickinson</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362636035</t>
+          <t>https://openalex.org/W4362551117</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Dickinson Supp Figure 1 from Inhibition of Akt Enhances the Chemopreventive Effects of Topical Rapamycin in Mouse Skin</t>
+          <t>Figure S1 from Pharmacological TLR4 Antagonism Using Topical Resatorvid Blocks Solar UV-Induced Skin Tumorigenesis in SKH-1 Mice</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3005,7 +3005,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.22534219.v1</t>
+          <t>https://doi.org/10.1158/1940-6207.22534564</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.22534219.v1</t>
+          <t>https://doi.org/10.1158/1940-6207.22534564</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -3057,42 +3057,42 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Brenna G. Kelly, M Herold, Clara Curiel‐Lewandrowski</t>
+          <t>Yira Bermudez, Steven P. Stratton, Clara Curiel‐Lewandrowski, James Warneke, Chengcheng Hu, G. Tim Bowden, Sally E. Dickinson, Zigang Dong, Ann M. Bode, Kathylynn Saboda, Christine Brooks, Emanuel F. Petricoin, Craig A. Hurst, David S. Alberts, Janine G. Einspahr</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>concerning this article should be addressed to Brenna Kelly, BA, Division of Dermatology, University of Arizona, 1501 N. Campbell Avenue, Tucson, AZ 85724. E-mail: [email protected]; Mitch Herold, MD, Division of Dermatology, University of Arizona, Tucson, AZ.; Brenna G. Kelly, BA, Division of Dermatology, Medical College of Wisconsin, Milwaukee, WI.; Clara Curiel-Lewandrowski, MD, Division of Dermatology, University of Arizona, Tucson, AZ.; The authors declare no conflict of interest.</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4376868631</t>
+          <t>https://openalex.org/W4362568069</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Impaired Dermatoscopic Visualization in a Patient With Ichthyosis Vulgaris Undergoing Complete Skin Examination</t>
+          <t>Data from Activation of the PI3K/Akt/mTOR and MAPK Signaling Pathways in Response to Acute Solar-Simulated Light Exposure of Human Skin</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Journal of the Dermatology Nurses’ Association</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/jdn.0000000000000734</t>
+          <t>https://doi.org/10.1158/1940-6207.c.6545171.v1</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -3102,12 +3102,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/jdn.0000000000000734</t>
+          <t>https://doi.org/10.1158/1940-6207.c.6545171.v1</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -3144,42 +3144,42 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Prajakta Vaishampayan, Jana Jandova, Yueqin Ai, Viktoria Kirschnerova, Clara Curiel‐Lewandrowski, Georg T. Wondrak, Sally E. Dickinson</t>
+          <t>Aleksandar Sekulić, Su Y. Kim, Galen Hostetter, Stephanie A. Savage, Janine G. Einspahr, Anil Prasad, Paul Sagerman, Clara Curiel‐Lewandrowski, Robert S. Krouse, G. Timothy Bowden, James Warneke, David S. Alberts, Mark R. Pittelkow, David J. DiCaudo, Brian J. Nickoloff, Jeffrey M. Trent, Michael Bittner</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1University of Arizona, Tucson, AZ.; 1University of Arizona, Tucson, AZ.; 1University of Arizona, Tucson, AZ.; 1University of Arizona, Tucson, AZ.; 1University of Arizona, Tucson, AZ.; 1University of Arizona, Tucson, AZ.; 1University of Arizona, Tucson, AZ.</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4379984324</t>
+          <t>https://openalex.org/W4362568441</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Abstract 5254: Topical inhibition of UV-induced PD-L1 expression and inflammatory signaling by the small molecule inhibitor BMS-202</t>
+          <t>Data from Loss of Inositol Polyphosphate 5-Phosphatase Is an Early Event in Development of Cutaneous Squamous Cell Carcinoma</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Cancer Research</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>American Association for Cancer Research</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1538-7445.am2023-5254</t>
+          <t>https://doi.org/10.1158/1940-6207.c.6544491</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3219,7 +3219,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1538-7445.am2023-5254</t>
+          <t>https://doi.org/10.1158/1940-6207.c.6544491</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -3231,27 +3231,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Rafael Ramírez Romero, Jingwei Zhao, Delaney B. Stratton, Clara Curiel, Dongkyun Kang</t>
+          <t>Janine G. Einspahr, Valerie Calvert, David S. Alberts, Clara Curiel‐Lewandrowski, James Warneke, Robert S. Krouse, Steven P. Stratton, Lance A. Liotta, Caterina Longo, Giovanni Pellicani, Anil Prasad, Paul Sagerman, Yira Bermudez, Jianghong Deng, G. Timothy Bowden, Emanuel F. Petricoin</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Department of Biomedical Engineering, University of Arizona, Tucson, Arizona, 85721, USA; James C. Wyant College of Optical Sciences, University of Arizona, Tucson, Arizona, 85721, USA; College of Medicine, University of Arizona, Tucson, Arizona, 85721, USA; College of Medicine, University of Arizona, Tucson, Arizona, 85721, USA; Department of Biomedical Engineering, University of Arizona, Tucson, Arizona, 85721, USA; James C. Wyant College of Optical Sciences, University of Arizona, Tucson, Arizona, 85721, USA</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4381492170</t>
+          <t>https://openalex.org/W4362568491</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Cross-Polarized Microscopy of Pigmented Cells In Vivo</t>
+          <t>Data from Functional Protein Pathway Activation Mapping of the Progression of Normal Skin to Squamous Cell Carcinoma</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1364/ntm.2023.nw1c.3</t>
+          <t>https://doi.org/10.1158/1940-6207.c.6544719</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1364/ntm.2023.nw1c.3</t>
+          <t>https://doi.org/10.1158/1940-6207.c.6544719</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -3318,57 +3318,57 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sabrina Dahak, Jennifer M. Fernandez, Jenna E. Koblinski, Clara Curiel‐Lewandrowski, Rebecca Thiede</t>
+          <t>Steven P. Stratton, David S. Alberts, Janine G. Einspahr, Paul Sagerman, James Warneke, Clara Curiel‐Lewandrowski, Paul B. Myrdal, Kelly L. Karlage, Brian J. Nickoloff, Chris Brooks, Kathylynn Saboda, Michael Yozwiak, Mary F. Krutzsch, Chengcheng Hu, Maria Lluria-Prevatt, Zigang Dong, G. Timothy Bowden, Peter H. Bartels</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>University of Arizona College of Medicine - Phoenix; University of Nebraska Medical Center, Department of Dermatology; Emory University School of Medicine, Department of Dermatology; University of Arizona, College of Medicine – Tucson, Department of Medicine, Division of Dermatology; University of Arizona, College of Medicine – Tucson, Department of Medicine, Division of Dermatology</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387015691</t>
+          <t>https://openalex.org/W4362615002</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>42131 Pediatric and Adolescent Melanoma: An Analysis of Gender Differences in Frequency and Overall Survival by Histologic Subtype</t>
+          <t>Perspective on this Article from A Phase 2a Study of Topical Perillyl Alcohol Cream for Chemoprevention of Skin Cancer</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Journal of the American Academy of Dermatology</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jaad.2023.07.821</t>
+          <t>https://doi.org/10.1158/1940-6207.22524051</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3393,7 +3393,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jaad.2023.07.821</t>
+          <t>https://doi.org/10.1158/1940-6207.22524051</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -3405,42 +3405,42 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Basanth Babu Eedara, Bhagyashree Manivannan, Wafaa Alabsi, Bo Sun, Clara Curiel‐Lewandrowski, Tianshun Zhang, Ann M. Bode, Heidi M. Mansour</t>
+          <t>Aleksandar Sekulić, Su Y. Kim, Galen Hostetter, Stephanie A. Savage, Janine G. Einspahr, Anil Prasad, Paul Sagerman, Clara Curiel‐Lewandrowski, Robert S. Krouse, G. Timothy Bowden, James Warneke, David S. Alberts, Mark R. Pittelkow, David J. DiCaudo, Brian J. Nickoloff, Jeffrey M. Trent, Michael Bittner</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Center for Translational Science, Florida International University, Port St. Lucie, FL 34987, USA; Center for Translational Science, Florida International University, Port St. Lucie, FL 34987, USA; Skaggs Pharmaceutical Sciences Center, College of Pharmacy, The University of Arizona, Tucson, AZ 85721, USA; Skaggs Pharmaceutical Sciences Center, College of Pharmacy, The University of Arizona, Tucson, AZ 85721, USA; Department of Medicine, Division of Dermatology, College of Medicine, The University of Arizona, Tucson, AZ 85724, USA; Skin Cancer Institute, The University of Arizona Cancer Center, Tucson, AZ 85724, USA; University of Arizona Cancer Center, University of Arizona, Tucson, AZ 85724, USA; The Hormel Institute, University of Minnesota, Austin, MN 55912, USA; The Hormel Institute, University of Minnesota, Austin, MN 55912, USA; Center for Translational Science, Florida International University, Port St. Lucie, FL 34987, USA; Department of Cell Biology &amp; Pharmacology, Herbert Wertheim College of Medicine, Florida International University, Miami, FL 33199, USA; Department of Environmental Health Sciences, Robert Stempel College of Public Health and Social Work, Florida International University, Miami, FL 33199, USA</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387906408</t>
+          <t>https://openalex.org/W4362615357</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Comprehensive Physicochemical Characterization, In Vitro Membrane Permeation, and In Vitro Human Skin Cell Culture of a Novel TOPK Inhibitor, HI-TOPK-032</t>
+          <t>Supplementary Figure S1 from Loss of Inositol Polyphosphate 5-Phosphatase Is an Early Event in Development of Cutaneous Squamous Cell Carcinoma</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2023-10-24</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>International Journal of Molecular Sciences</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Multidisciplinary Digital Publishing Institute</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/ijms242115515</t>
+          <t>https://doi.org/10.1158/1940-6207.22524936</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3450,12 +3450,12 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3475,12 +3475,12 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37958502</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/ijms242115515</t>
+          <t>https://doi.org/10.1158/1940-6207.22524936</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -3492,22 +3492,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Ge Gao, Tianshun Zhang, Qiushi Wang, Kanamata Reddy, Hanyong Chen, Yinglin Ke, Keke Wang, Eunmiri Roh, Tatyana A. Zykova, Weiya Ma, Joohyun Ryu, Clara Curiel‐Lewandrowski, David S. Alberts, Sally E. Dickinson, Ann M. Bode, Ying Xing, Zigang Dong</t>
+          <t>Yira Bermudez, Steven P. Stratton, Clara Curiel‐Lewandrowski, James Warneke, Chengcheng Hu, G. Tim Bowden, Sally E. Dickinson, Zigang Dong, Ann M. Bode, Kathylynn Saboda, Christine Brooks, Emanuel F. Petricoin, Craig A. Hurst, David S. Alberts, Janine G. Einspahr</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362484936</t>
+          <t>https://openalex.org/W4362615831</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Supplemental Figure 6 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
+          <t>Supplementary Figures 1-3 from Activation of the PI3K/Akt/mTOR and MAPK Signaling Pathways in Response to Acute Solar-Simulated Light Exposure of Human Skin</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22507680.v1</t>
+          <t>https://doi.org/10.1158/1940-6207.22526684</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3542,7 +3542,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22507680.v1</t>
+          <t>https://doi.org/10.1158/1940-6207.22526684</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -3579,22 +3579,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Ge Gao, Tianshun Zhang, Qiushi Wang, Kanamata Reddy, Hanyong Chen, Yinglin Ke, Keke Wang, Eunmiri Roh, Tatyana A. Zykova, Weiya Ma, Joohyun Ryu, Clara Curiel‐Lewandrowski, David S. Alberts, Sally E. Dickinson, Ann M. Bode, Ying Xing, Zigang Dong</t>
+          <t>Yira Bermudez, Steven P. Stratton, Clara Curiel‐Lewandrowski, James Warneke, Chengcheng Hu, G. Tim Bowden, Sally E. Dickinson, Zigang Dong, Ann M. Bode, Kathylynn Saboda, Christine Brooks, Emanuel F. Petricoin, Craig A. Hurst, David S. Alberts, Janine G. Einspahr</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362485065</t>
+          <t>https://openalex.org/W4362615947</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Supplemental Figure 2 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
+          <t>Supplementary Figure Legends from Activation of the PI3K/Akt/mTOR and MAPK Signaling Pathways in Response to Acute Solar-Simulated Light Exposure of Human Skin</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22507692.v1</t>
+          <t>https://doi.org/10.1158/1940-6207.22526687</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3629,7 +3629,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3654,7 +3654,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22507692.v1</t>
+          <t>https://doi.org/10.1158/1940-6207.22526687</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -3666,22 +3666,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Ge Gao, Tianshun Zhang, Qiushi Wang, Kanamata Reddy, Hanyong Chen, Yinglin Ke, Keke Wang, Eunmiri Roh, Tatyana A. Zykova, Weiya Ma, Joohyun Ryu, Clara Curiel‐Lewandrowski, David S. Alberts, Sally E. Dickinson, Ann M. Bode, Ying Xing, Zigang Dong</t>
+          <t>Steven P. Stratton, David S. Alberts, Janine G. Einspahr, Paul Sagerman, James Warneke, Clara Curiel‐Lewandrowski, Paul B. Myrdal, Kelly L. Karlage, Brian J. Nickoloff, Chris Brooks, Kathylynn Saboda, Michael Yozwiak, Mary F. Krutzsch, Chengcheng Hu, Maria Lluria-Prevatt, Zigang Dong, G. Timothy Bowden, Peter H. Bartels</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362493314</t>
+          <t>https://openalex.org/W4362625072</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Data from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
+          <t>Perspective on this Article from A Phase 2a Study of Topical Perillyl Alcohol Cream for Chemoprevention of Skin Cancer</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3701,12 +3701,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.c.6538761.v1</t>
+          <t>https://doi.org/10.1158/1940-6207.22524051.v1</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.c.6538761.v1</t>
+          <t>https://doi.org/10.1158/1940-6207.22524051.v1</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
@@ -3753,22 +3753,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Ge Gao, Tianshun Zhang, Qiushi Wang, Kanamata Reddy, Hanyong Chen, Yinglin Ke, Keke Wang, Eunmiri Roh, Tatyana A. Zykova, Weiya Ma, Joohyun Ryu, Clara Curiel‐Lewandrowski, David S. Alberts, Sally E. Dickinson, Ann M. Bode, Ying Xing, Zigang Dong</t>
+          <t>Sally E. Dickinson, Jaroslav Janda, Jane Criswell, Karen Blohm-Mangone, Erik R. Olson, Zhonglin Liu, Christy Barber, Emanuel F. Petricoin, Valerie Calvert, Janine G. Einspahr, Jesse E. Dickinson, Steven P. Stratton, Clara Curiel‐Lewandrowski, Kathylynn Saboda, Chengcheng Hu, Ann M. Bode, Zigang Dong, David S. Alberts, G. Timothy Bowden</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362494214</t>
+          <t>https://openalex.org/W4362636035</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Supplemental Figure 4 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
+          <t>Dickinson Supp Figure 1 from Inhibition of Akt Enhances the Chemopreventive Effects of Topical Rapamycin in Mouse Skin</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22507686</t>
+          <t>https://doi.org/10.1158/1940-6207.22534219.v1</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22507686</t>
+          <t>https://doi.org/10.1158/1940-6207.22534219.v1</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
@@ -3840,57 +3840,57 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Ge Gao, Tianshun Zhang, Qiushi Wang, Kanamata Reddy, Hanyong Chen, Yinglin Ke, Keke Wang, Eunmiri Roh, Tatyana A. Zykova, Weiya Ma, Joohyun Ryu, Clara Curiel‐Lewandrowski, David S. Alberts, Sally E. Dickinson, Ann M. Bode, Ying Xing, Zigang Dong</t>
+          <t>Brenna G. Kelly, M Herold, Clara Curiel‐Lewandrowski</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t>concerning this article should be addressed to Brenna Kelly, BA, Division of Dermatology, University of Arizona, 1501 N. Campbell Avenue, Tucson, AZ 85724. E-mail: [email protected]; Mitch Herold, MD, Division of Dermatology, University of Arizona, Tucson, AZ.; Brenna G. Kelly, BA, Division of Dermatology, Medical College of Wisconsin, Milwaukee, WI.; Clara Curiel-Lewandrowski, MD, Division of Dermatology, University of Arizona, Tucson, AZ.; The authors declare no conflict of interest.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362494290</t>
+          <t>https://openalex.org/W4376868631</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Supplemental Figure 6 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
+          <t>Impaired Dermatoscopic Visualization in a Patient With Ichthyosis Vulgaris Undergoing Complete Skin Examination</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Journal of the Dermatology Nurses’ Association</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22507680</t>
+          <t>https://doi.org/10.1097/jdn.0000000000000734</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3915,7 +3915,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22507680</t>
+          <t>https://doi.org/10.1097/jdn.0000000000000734</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
@@ -3927,57 +3927,57 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Ge Gao, Tianshun Zhang, Qiushi Wang, Kanamata Reddy, Hanyong Chen, Yinglin Ke, Keke Wang, Eunmiri Roh, Tatyana A. Zykova, Weiya Ma, Joohyun Ryu, Clara Curiel‐Lewandrowski, David S. Alberts, Sally E. Dickinson, Ann M. Bode, Ying Xing, Zigang Dong</t>
+          <t>Prajakta Vaishampayan, Jana Jandova, Yueqin Ai, Viktoria Kirschnerova, Clara Curiel‐Lewandrowski, Georg T. Wondrak, Sally E. Dickinson</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t>1University of Arizona, Tucson, AZ.; 1University of Arizona, Tucson, AZ.; 1University of Arizona, Tucson, AZ.; 1University of Arizona, Tucson, AZ.; 1University of Arizona, Tucson, AZ.; 1University of Arizona, Tucson, AZ.; 1University of Arizona, Tucson, AZ.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362494308</t>
+          <t>https://openalex.org/W4379984324</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Supplemental Figure 3 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
+          <t>Abstract 5254: Topical inhibition of UV-induced PD-L1 expression and inflammatory signaling by the small molecule inhibitor BMS-202</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Cancer Research</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>American Association for Cancer Research</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22507689</t>
+          <t>https://doi.org/10.1158/1538-7445.am2023-5254</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22507689</t>
+          <t>https://doi.org/10.1158/1538-7445.am2023-5254</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -4014,27 +4014,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Ge Gao, Tianshun Zhang, Qiushi Wang, Kanamata Reddy, Hanyong Chen, Yinglin Ke, Keke Wang, Eunmiri Roh, Tatyana A. Zykova, Weiya Ma, Joohyun Ryu, Clara Curiel‐Lewandrowski, David S. Alberts, Sally E. Dickinson, Ann M. Bode, Ying Xing, Zigang Dong</t>
+          <t>Rafael Ramírez Romero, Jingwei Zhao, Delaney B. Stratton, Clara Curiel, Dongkyun Kang</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t>Department of Biomedical Engineering, University of Arizona, Tucson, Arizona, 85721, USA; James C. Wyant College of Optical Sciences, University of Arizona, Tucson, Arizona, 85721, USA; College of Medicine, University of Arizona, Tucson, Arizona, 85721, USA; College of Medicine, University of Arizona, Tucson, Arizona, 85721, USA; Department of Biomedical Engineering, University of Arizona, Tucson, Arizona, 85721, USA; James C. Wyant College of Optical Sciences, University of Arizona, Tucson, Arizona, 85721, USA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362494309</t>
+          <t>https://openalex.org/W4381492170</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Supplemental Figure 1 from ADA-07 Suppresses Solar Ultraviolet–Induced Skin Carcinogenesis by Directly Inhibiting TOPK</t>
+          <t>Cross-Polarized Microscopy of Pigmented Cells In Vivo</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -4049,22 +4049,22 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22507695</t>
+          <t>https://doi.org/10.1364/ntm.2023.nw1c.3</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -4089,7 +4089,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22507695</t>
+          <t>https://doi.org/10.1364/ntm.2023.nw1c.3</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
@@ -4101,57 +4101,57 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Steven P. Stratton, David S. Alberts, Janine G. Einspahr, Paul Sagerman, James Warneke, Clara Curiel‐Lewandrowski, Paul B. Myrdal, Kelly L. Karlage, Brian J. Nickoloff, Chris Brooks, Kathylynn Saboda, Michael Yozwiak, Mary Krutzsch, Chengcheng Hu, Maria Lluria-Prevatt, Zigang Dong, G. Timothy Bowden, Peter H. Bartels</t>
+          <t>Rafael Ramírez Romero, Jingwei Zhao, Delaney B. Stratton, Kenneth A. Marcelino, Momoka Sugimura, Andrew W. Nichols, Salvador González, Manu Jain, Clara Curiel‐Lewandrowski, Do Kyun Kang</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t>Department of Biomedical Engineering, University of Arizona, Tucson, AZ, USA; College of Optical Sciences, University of Arizona, Tucson, AZ, USA; College of Medicine-Tucson, University of Arizona, Tucson, AZ, USA; College of Optical Sciences, University of Arizona, Tucson, AZ, USA; College of Optical Sciences, University of Arizona, Tucson, AZ, USA; College of Optical Sciences, University of Arizona, Tucson, AZ, USA; Department of Medicine and Medical Specialties Alcalá University of Madrid  Spain; Memorial Sloan Kettering Cancer Center, New York, NY, USA; College of Medicine-Tucson, University of Arizona, Tucson, AZ, USA; College of Optical Sciences, University of Arizona, Tucson, AZ, USA; Department of Biomedical Engineering, University of Arizona, Tucson, AZ, USA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362615002</t>
+          <t>https://openalex.org/W4386623657</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Perspective on this Article from A Phase 2a Study of Topical Perillyl Alcohol Cream for Chemoprevention of Skin Cancer</t>
+          <t>Handheld cross‐polarized microscope for imaging individual pigmented cells in human skin in vivo</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2023-09-17</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Journal of Microscopy</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Wiley-Blackwell</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.22524051</t>
+          <t>https://doi.org/10.1111/jmi.13225</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -4171,12 +4171,12 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37698068</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.22524051</t>
+          <t>https://doi.org/10.1111/jmi.13225</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
@@ -4188,57 +4188,57 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Steven P. Stratton, David S. Alberts, Janine G. Einspahr, Paul Sagerman, James Warneke, Clara Curiel‐Lewandrowski, Paul B. Myrdal, Kelly L. Karlage, Brian J. Nickoloff, Chris Brooks, Kathylynn Saboda, Michael Yozwiak, Mary Krutzsch, Chengcheng Hu, Maria Lluria-Prevatt, Zigang Dong, G. Timothy Bowden, Peter H. Bartels</t>
+          <t>Sabrina Dahak, Jennifer M. Fernandez, Jenna E. Koblinski, Clara Curiel‐Lewandrowski, Rebecca Thiede</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t>University of Arizona College of Medicine - Phoenix; University of Nebraska Medical Center, Department of Dermatology; Emory University School of Medicine, Department of Dermatology; University of Arizona, College of Medicine – Tucson, Department of Medicine, Division of Dermatology; University of Arizona, College of Medicine – Tucson, Department of Medicine, Division of Dermatology</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362625072</t>
+          <t>https://openalex.org/W4387015691</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Perspective on this Article from A Phase 2a Study of Topical Perillyl Alcohol Cream for Chemoprevention of Skin Cancer</t>
+          <t>42131 Pediatric and Adolescent Melanoma: An Analysis of Gender Differences in Frequency and Overall Survival by Histologic Subtype</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Journal of the American Academy of Dermatology</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.22524051.v1</t>
+          <t>https://doi.org/10.1016/j.jaad.2023.07.821</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -4263,7 +4263,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1940-6207.22524051.v1</t>
+          <t>https://doi.org/10.1016/j.jaad.2023.07.821</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
@@ -4275,47 +4275,47 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Rafael Ramírez Romero, Jingwei Zhao, Delaney B. Stratton, Kenneth A. Marcelino, Momoka Sugimura, Andrew W. Nichols, Salvador González, Manu Jain, Clara Curiel‐Lewandrowski, Do Kyun Kang</t>
+          <t>Basanth Babu Eedara, Bhagyashree Manivannan, Wafaa Alabsi, Bo Sun, Clara Curiel‐Lewandrowski, Tianshun Zhang, Ann M. Bode, Heidi M. Mansour</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Department of Biomedical Engineering, University of Arizona, Tucson, AZ, USA; College of Optical Sciences, University of Arizona, Tucson, AZ, USA; College of Medicine-Tucson, University of Arizona, Tucson, AZ, USA; College of Optical Sciences, University of Arizona, Tucson, AZ, USA; College of Optical Sciences, University of Arizona, Tucson, AZ, USA; College of Optical Sciences, University of Arizona, Tucson, AZ, USA; Department of Medicine and Medical Specialties Alcalá University of Madrid  Spain; Memorial Sloan Kettering Cancer Center, New York, NY, USA; College of Medicine-Tucson, University of Arizona, Tucson, AZ, USA; College of Optical Sciences, University of Arizona, Tucson, AZ, USA; Department of Biomedical Engineering, University of Arizona, Tucson, AZ, USA</t>
+          <t>Center for Translational Science, Florida International University, Port St. Lucie, FL 34987, USA; Center for Translational Science, Florida International University, Port St. Lucie, FL 34987, USA; Skaggs Pharmaceutical Sciences Center, College of Pharmacy, The University of Arizona, Tucson, AZ 85721, USA; Skaggs Pharmaceutical Sciences Center, College of Pharmacy, The University of Arizona, Tucson, AZ 85721, USA; Department of Medicine, Division of Dermatology, College of Medicine, The University of Arizona, Tucson, AZ 85724, USA; Skin Cancer Institute, The University of Arizona Cancer Center, Tucson, AZ 85724, USA; University of Arizona Cancer Center, University of Arizona, Tucson, AZ 85724, USA; The Hormel Institute, University of Minnesota, Austin, MN 55912, USA; The Hormel Institute, University of Minnesota, Austin, MN 55912, USA; Center for Translational Science, Florida International University, Port St. Lucie, FL 34987, USA; Department of Cell Biology &amp; Pharmacology, Herbert Wertheim College of Medicine, Florida International University, Miami, FL 33199, USA; Department of Environmental Health Sciences, Robert Stempel College of Public Health and Social Work, Florida International University, Miami, FL 33199, USA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386623657</t>
+          <t>https://openalex.org/W4387906408</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Handheld cross‐polarized microscope for imaging individual pigmented cells in human skin in vivo</t>
+          <t>Comprehensive Physicochemical Characterization, In Vitro Membrane Permeation, and In Vitro Human Skin Cell Culture of a Novel TOPK Inhibitor, HI-TOPK-032</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2023-09-17</t>
+          <t>2023-10-24</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Journal of Microscopy</t>
+          <t>International Journal of Molecular Sciences</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Wiley-Blackwell</t>
+          <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/jmi.13225</t>
+          <t>https://doi.org/10.3390/ijms242115515</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -4325,7 +4325,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -4345,15 +4345,537 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37698068</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37958502</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/jmi.13225</t>
+          <t>https://doi.org/10.3390/ijms242115515</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Yira Bermudez, Steven P. Stratton, Clara Curiel‐Lewandrowski, James Warneke, Chengcheng Hu, G. Tim Bowden, Sally E. Dickinson, Zigang Dong, Ann M. Bode, Kathylynn Saboda, Christine Brooks, Emanuel F. Petricoin, Craig A. Hurst, David S. Alberts, Janine G. Einspahr</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4392685724</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Data from Activation of the PI3K/Akt/mTOR and MAPK Signaling Pathways in Response to Acute Solar-Simulated Light Exposure of Human Skin</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2023-04-03</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1940-6207.c.6545171</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1940-6207.c.6545171</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Steven P. Stratton, David S. Alberts, Janine G. Einspahr, Paul Sagerman, James Warneke, Clara Curiel‐Lewandrowski, Paul B. Myrdal, Kelly L. Karlage, Brian J. Nickoloff, Chris Brooks, Kathylynn Saboda, Michael Yozwiak, Mary F. Krutzsch, Chengcheng Hu, Maria Lluria-Prevatt, Zigang Dong, G. Timothy Bowden, Peter H. Bartels</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4392690184</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Data from A Phase 2a Study of Topical Perillyl Alcohol Cream for Chemoprevention of Skin Cancer</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2023-04-03</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1940-6207.c.6544071</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1940-6207.c.6544071</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Sally E. Dickinson, Jaroslav Janda, Jane Criswell, Karen Blohm-Mangone, Erik R. Olson, Zhonglin Liu, Christy Barber, Emanuel F. Petricoin, Valerie Calvert, Janine G. Einspahr, Jesse E. Dickinson, Steven P. Stratton, Clara Curiel‐Lewandrowski, Kathylynn Saboda, Chengcheng Hu, Ann M. Bode, Zigang Dong, David S. Alberts, G. Timothy Bowden</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4392690578</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Data from Inhibition of Akt Enhances the Chemopreventive Effects of Topical Rapamycin in Mouse Skin</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2023-04-03</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1940-6207.c.6547411</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1940-6207.c.6547411</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Karen Blohm-Mangone, Nichole B. Burkett, Shekha Tahsin, Paul B. Myrdal, Alhassan H. Aodah, Brenda Ho, Jaroslav Janda, Michelle McComas, Kathylynn Saboda, Denise J. Roe, Zigang Dong, Ann M. Bode, Emanuel F. Petricoin, Valerie Calvert, Clara Curiel‐Lewandrowski, David S. Alberts, Georg T. Wondrak, Sally E. Dickinson</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4392690878</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Data from Pharmacological TLR4 Antagonism Using Topical Resatorvid Blocks Solar UV-Induced Skin Tumorigenesis in SKH-1 Mice</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2023-04-03</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1940-6207.c.6547552</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1940-6207.c.6547552</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Aleksandar Sekulić, Su Y. Kim, Galen Hostetter, Stephanie A. Savage, Janine G. Einspahr, Anil Prasad, Paul Sagerman, Clara Curiel‐Lewandrowski, Robert S. Krouse, G. Timothy Bowden, James Warneke, David S. Alberts, Mark R. Pittelkow, David J. DiCaudo, Brian J. Nickoloff, Jeffrey M. Trent, Michael Bittner</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4392700944</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Data from Loss of Inositol Polyphosphate 5-Phosphatase Is an Early Event in Development of Cutaneous Squamous Cell Carcinoma</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2023-04-03</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1940-6207.c.6544491.v1</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1940-6207.c.6544491.v1</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Steven P. Stratton, David S. Alberts, Janine G. Einspahr, Paul Sagerman, James Warneke, Clara Curiel‐Lewandrowski, Paul B. Myrdal, Kelly L. Karlage, Brian J. Nickoloff, Chris Brooks, Kathylynn Saboda, Michael Yozwiak, Mary F. Krutzsch, Chengcheng Hu, Maria Lluria-Prevatt, Zigang Dong, G. Timothy Bowden, Peter H. Bartels</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4392721920</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Data from A Phase 2a Study of Topical Perillyl Alcohol Cream for Chemoprevention of Skin Cancer</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2023-04-03</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1940-6207.c.6544071.v1</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1940-6207.c.6544071.v1</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
         <is>
           <t>article</t>
         </is>
